--- a/deuChatbot/research_result/table_to_json(3500_200).xlsx
+++ b/deuChatbot/research_result/table_to_json(3500_200).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21027,6 +21027,6865 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 구체적인 정보를 제공하지 않고, 일반적인 특징만을 언급하고 있습니다. 이는 원본 텍스트의 구체적인 내용과 상충하며, 사실적 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, "디자인조형학과" 관련 실기시험 내용이 포함되어 있지 않다고 주장합니다. 이는 원본 텍스트와 모순되는 정보입니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 내용과는 관련이 적습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 모호할 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적으로 연결된 내용이지만, 원본 텍스트와의 연관성이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 모두 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.701232392258605</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보에는 "디자인조형학과" 관련한 실기시험 내용이 포함되어 있지 않습니다. 디자인조형학과의 실기시험은 대체로 다음과 같은 특징을 가질 수 있습니다:
+1. **창의성 평가**: 학생들의 창의적인 사고와 표현력을 평가합니다.
+2. **기술적 능력 평가**: 도면 그리기, 모형 제작 등 기술적 능력을 평가합니다.
+3. **디자인 이론 이해도 평가**: 디자인 이론과 실제 적용을 통한 이해도를 평가합니다.
+하지만 정확한 실기시험 내용은 각 대학의 입학처 웹사이트나 공식 안내서에서 확인해야 합니다. 만약 더 자세한 정보가 필요하다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 주세요. 그곳에서는 디자인조형학과의 실기시험 내용을 포함하여 다양한 입시 관련 정보를 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보가 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 필요한 모든 정보를 적절하게 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어져 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8600749160022805</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 '기초디자인'과 '사고의 전환' 중에서 선택하게 됩니다.
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+- **실기주제**: 주제A와 주제B 각각에서 1개씩을 선정하여 연결된 주제를 당일 추첨으로 결정하게 됩니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다.
+- **화지크기**: 켄트지3절 또는 켄트지2절이 사용됩니다.
+- **시간**: 각 실기종목 모두 5시간 동안 진행됩니다.
+위의 정보를 참고하여 준비하시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록이 누락되거나 잘못된 정보가 없습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 대회 목록이 정확하게 나열되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 요청된 정보에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 예를 들어, "이러한 대회의 성적을 인정받아 모집에 참여할 수 있습니다." 부분이 조금 더 자연스럽게 표현될 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회가 명확하게 구분되어 있습니다. 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9199096063996132</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다.
+1. 배드민턴(남)의 경우:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)의 경우:
+   -춘계한국고등학교축구연맹전
+   -추계한국고등학교축구연맹전
+   -대한축구협회장배전국고등학교축구대회
+   -문화체육관광부장관기전국고등학교축구대회
+   -문화체육관광부장관배전국고등학교축구대회
+   -백운기전국고등학교축구대회
+   -전국고등축구리그(권역별고교축구리그)
+   -전국고등축구리그왕중왕전
+   -무학기전국고등학교축구대회
+   -청룡기전국고등학교축구대회
+   -백록기전국고등학교축구대회
+   -금강대기전국고등학교축구대회
+   -대통령금배전국고등학교축구대회
+   -금석배전국고등학생축구대회
+   -부산MBC전국고등학생축구대회
+   -K리그 U18 챔피언십
+   -K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 인정받아 모집에 참여할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 주제A와 주제B의 예시를 정확하게 나열하고 있으며, 시험 당일 주제를 선택하는 방식도 올바르게 설명하고 있습니다. 그러나 "콜라병과 계절"이라는 예시는 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 일관되게 반영하고 있지만, "콜라병과 계절"이라는 추가 예시가 원본 텍스트와 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 주제 선택 및 연결에 대한 설명이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제 선택 과정과 예시가 명확하게 연결되어 있습니다. 그러나 "콜라병과 계절"의 추가로 인해 약간의 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 원본 텍스트에 없는 예시가 포함되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 예시가 맥락에 맞지 않아 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 주제와 관련된 정보가 잘 전달되고 있습니다. 다만, 추가된 예시로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.7773396074021598</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 중 각각 하나를 선택하여 연결된 주제로 만듭니다. 예시 주제들로는 다음과 같습니다:
+1. 잠자리와 저울
+2. 콜라병과 계절
+주제A의 예시:
+- 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+주제B의 예시:
+- 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+제공된 사물과 이미지를 기반으로 새로운 주제를 만드는 것이 중요합니다. 제공된 사물을 모두 1회 이상 표현하고, 색상 변경은 피해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있으며, 추가적인 세부사항도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 출결 점수가 반영되지 않는다는 내용을 일관되게 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 점수에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.6731254257934745</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 나군 학생부교과(농어촌학생전형)와 나군 학생부교과(평생학습자전형)에서는 출결이 반영되지 않습니다. 
+- 나군 학생부교과(농어촌학생전형): 출결은 0%로 반영되어 있지 않습니다.
+- 나군 학생부교과(평생학습자전형): 출결은 0%로 반영되어 있지 않습니다.
+따라서, 동의대학교에서 제공된 정보에 따르면 출결 점수가 해당 전형에서 반영되지 않는 것으로 확인됩니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.8513308125590067</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2024학년도 인문사회과학대학의 국어국문학과에서 가군 일반학생전형인 경우, 정원 내로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 인문사회과학대학 영어영문학과의 모집 인원에 대한 정확한 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 28명의 신입생 선발 사실을 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 모집 인원이 28명이라고 명확히 언급하고 있지만, 생성된 응답은 모집 인원이 공개되지 않았다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 정보가 부족합니다. 그러나 웹사이트 방문을 권장하는 부분은 어느 정도 관련성이 있지만, 전체적으로는 주제와의 관련성이 낮습니다.
+4. Fluency Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 문법적으로 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 모집 인원에 대한 잘못된 정보를 제공합니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 전달하지 못하고 있으며, 주제와 관련된 정보가 부족합니다.
+9. Understandability Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 이해할 수 있는 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.6160813917450921</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>2024년도에 인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로는 정원내 모집인원이 공개되지 않았습니다. 제공된 정보에서는 해당 단과대학 및 계열, 전형명을 기준으로 한 정원내 모집인원이 없습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해보시거나 대학에 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트에서 제공된 구체적인 정보인 "총 22명의 신입생을 선발합니다"라는 내용을 완전히 무시하고 있으며, 관련 정보가 없다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 신입생 선발 인원을 명확히 제시하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 신입생 선발 인원에 대한 정보를 제공하지 않으며, 관련성이 전혀 없습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 괜찮지만, 한국어로 작성된 원본 텍스트와는 전혀 관련이 없는 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려운 점이 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 없고, 논리적인 흐름이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 신입생 선발 인원에 대한 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 전혀 맞지 않으며, 문맥에 적합하지 않습니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려운 점이 있으며, 원본 텍스트와의 관련성이 없기 때문에 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.4967556304348585</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>所提供的信息中并没有提到关于医疗保健康生生活大学护理学专业的具体招生人数。根据提供的上下文，医疗保健康生生活大学下的专业和招生情况并未详细列出。建议访问以下网站以获取更准确的信息：https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 수능 영어영역 등급에 따른 점수를 잘못 제시하고 있으며, 원본 텍스트의 점수와 전혀 일치하지 않습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본의 점수와 생성된 점수는 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 수능 영어 등급에 대한 점수를 언급하고 있지만, 제공된 점수가 원본 텍스트와 관련이 없기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 점수와 전혀 다르며, 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 수능 영어 등급에 대한 정보를 제공하고 있지만, 점수가 잘못되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문장이 명확하고 이해하기 쉬운 편이지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.8201337296343958</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1: 350점
+- 등급 2: 325점
+- 등급 3: 300점
+이 점수가 각 등급별로 반영되어 동점자 처리 기준에서 사용됩니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형에 지원할 수 없다는 사실을 잘 반영하고 있습니다. 그러나 "해당되지 않을 가능성이 있습니다"라는 표현은 다소 모호하게 느껴질 수 있으며, 명확한 사실을 전달하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "해당되지 않을 가능성이 있습니다"라는 표현은 원문에서의 확정적인 진술과 일치하지 않습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 예술고 학생의 지원 자격에 대한 정보를 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 약간의 중복된 내용이 있어 완전한 일관성에는 다소 부족함이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제시된 사실을 잘 반영하고 있지만, "해당되지 않을 가능성이 있습니다"라는 표현이 정확성을 약간 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나 일부 표현에서의 모호함이 아쉬운 점입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하지만, "해당되지 않을 가능성이 있습니다"라는 표현이 다소 애매하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.6997823122462926</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>2024학년도에 나군 학생부교과 농어촌학생전형을 지원하려는 예술고 학생의 경우, 지원 자격이 해당되지 않을 가능성이 있습니다. 이 전형은 주로 농어촌 지역 출신 또는 관련 조건을 만족하는 학생들을 대상으로 하므로, 예술고 학생이라면 일반적으로 해당 전형에 지원하기 어려울 것으로 보입니다.
+만약 특정 조건이 추가되어 있다면, 그 조건을 확인해야 합니다. 그러나 기본적으로 농어촌학생전형은 농어촌 지역 출신이나 관련 조건을 만족하는 학생들을 대상으로 하므로 예술고 학생의 경우 지원 자격에 해당하지 않을 가능성이 큽니다.
+더 정확한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나 입학처와 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 4등급 기록을 217cm 이상으로 언급하고 있지만, 원본 텍스트에서는 4등급 기록이 218~221cm로 명시되어 있습니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 기록의 범위에 대한 정보가 다릅니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 4등급 기록과 배점에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 기록 범위에 대한 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 기록 범위에 대한 부정확한 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 양호한 품질을 가지고 있지만, 사실성과 정확성에서의 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 기록 범위의 부정확성으로 인해 약간의 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 다만, 기록 범위에 대한 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8561008497877548</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 217cm 이상이며, 이 기록에 대한 배점은 275점입니다.
+이 정보는 다음과 같은 테이블에서 얻을 수 있습니다:
+| 등급 | 제자리 멀리뛰기(여) / Z-런(여) |
+|------|--------------------------------|
+| 1    | 230 이상 / 15.29 이하           |
+| 2    | 226~229 / 15.30~15.49          |
+| 3    | 222~225 / 15.50~15.69          |
+| 4    | 217 이상 / 15.70~15.89         |
+따라서, 여자 제자리 멀리뛰기 4등급의 기록은 217cm 이상이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율이 12%라는 사실을 완전히 무시하고 있으며, 잘못된 정보를 제공하고 있습니다. 따라서 사실성과 관련하여 매우 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 명확한 비율을 제시하고 있지만, 생성된 응답은 비율이 제시되지 않았다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보인 출결 반영 비율에 대한 질문에 대한 직접적인 답변을 제공하지 않고, 다른 학과의 출결 반영 방식에 대한 정보로 주제를 벗어나고 있습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 점수를 완벽하게 주지는 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 경기지도학과의 출결 반영 비율에 대한 잘못된 정보를 제공합니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 전달하지 못하고 있으며, 주제와 관련이 없는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.6541494075993013</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 경기지도학과의 출결 반영 비율에 대한 명시는 없습니다. 다른 학과들의 경우, 출결은 실적/실제 성적 산출 방식 중 하나로 반영되곤 하지만, 경기지도학과의 경우에는 구체적인 반영 비율이 제시되어 있지 않습니다.
+만약 더 자세한 정보를 원하시면, "기타사항 나군 실기/실적(경기실적우수자전형) 학생부 출결상황 반영방법" 섹션을 확인해보시거나, 직접 동의대학교에 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 모집 인원과 학과 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 표현으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.9452619784692259</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보가 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.5155941556140711</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다. 이 날짜는 입학 안내 홈페이지에서 대기실 및 입실 시간을 확인할 수 있는 시점이기도 합니다.
+상세 일정은 다음과 같습니다:
+- **일정**: 2024년 1월 17일(수)
+- **비고**: 
+  - 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+이 정보를 참고하여 준비하시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 반영하고 있지만, "다른 전형 유형이나 학과에서의 수능 최저기준만이 제시되어 있습니다"라는 부분은 다소 모호하게 들릴 수 있습니다. 그러나 전반적으로 사실에 부합합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 수능 최저 기준이 없다는 점을 언급하고 있지만, "특정 학과나 전형별로 수능 최저기준이 설정될 수 있다"는 내용은 원문과 일치하지 않으며, 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 핵심인 수능 최저 기준에 대한 정보를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, 일부 표현이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 특정 부분에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 최저 기준이 없다는 점을 정확히 전달하고 있지만, 특정 학과나 전형에 대한 언급이 원문과 일치하지 않아 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원문과 의미적으로 잘 맞아떨어지지만, 특정 학과나 전형에 대한 언급이 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 복잡하게 느껴질 수 있어 완전한 명확성에는 다소 부족함이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.5633350022638859</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준 정보가 제공된 데이터 내에서는 명시되어 있지 않습니다. 다른 전형 유형이나 학과에서의 수능 최저기준만이 제시되어 있습니다.
+데이터에 따르면, 수능 위주의 전형들에는 수능 최저기준이 없습니다 (수능최저기준 없음). 그러나 특정 학과나 전형별로 수능 최저기준이 설정될 수 있으므로, 공식 입학처 웹사이트를 방문하여 확인하시거나, 추가 정보가 필요하다면 다시 문의해 주세요.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과에 대한 정보를 명시적으로 부정하고 있습니다. 그러나 원본 텍스트에는 신설된 학과에 대한 구체적인 목록이 제공되어 있어, 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 내용을 담고 있습니다. 원본 텍스트는 신설된 학과를 나열하고 있지만, 생성된 응답은 그러한 언급이 없다고 주장하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 신설된 학과에 대한 정보를 제공하지 않으며, 오히려 관련 없는 정보를 언급하고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있으나, 원본 텍스트와의 관계가 명확하지 않아 논리적 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 왜곡하고 있으며, 신설된 학과에 대한 정보를 전혀 반영하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 이해하고 있으며, 부적절한 주장을 하고 있습니다. 그러나 문장 자체는 이해할 수 있는 수준입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.4101645875422081</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도에 신설된 학과에 대한 명시는 없습니다. 각 단과대학 및 모집단위별 모집인원, 지원 인원 등에 대해 자세히 설명되어 있지만, 신설된 학과에 대한 언급은 없네요. 더 구체적인 정보를 원하신다면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 서류와 면접의 비율을 잘못 전달하고 있습니다. 원문에서는 서류 70%와 면접 30%라고 명시되어 있지만, 생성된 응답에서는 '학생부 교과'와 '출결'이라는 잘못된 항목을 사용하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공하고 있습니다. 원문에서 언급된 '서류'와 '면접' 대신 '학생부 교과'와 '출결'을 언급하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 질문에 답하고 있지만, 잘못된 정보를 포함하고 있어 관련성은 있지만 정확하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성이 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정확한 정보를 반영하지 않고 있으며, 잘못된 항목을 사용하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원문과의 일치성이 낮고, 정확성 및 일관성에서 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.8683858310354792</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 학생부 교과: 70%
+- 출결: 30%
+이 비율로 서류평가와 면접을 진행합니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과들을 언급하고 있지만, 원본 텍스트에 명시된 '의료·보건·생활대학'을 포함하지 않고 있습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, '의료·보건·생활대학'을 언급하지 않아 일관성이 떨어집니다. 이로 인해 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 가산점 적용 학과에 대한 정보를 잘 전달하고 있습니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과에 대한 설명이 일관되게 이어집니다. 그러나 원본 텍스트의 모든 요소를 포함하지 않아 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 제공하지만, 원본 텍스트에 포함된 모든 학과를 반영하지 않아 정확성에서 부족함이 있습니다. 따라서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 일부 사실이 누락되어 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 일부 정보가 누락되어 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트의 모든 내용을 포함하지 않아 약간의 혼란을 줄 수 있습니다. 따라서 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7274548305824534</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>동의대학교에서 수능 가산점을 적용하는 학과들은 주로 공과대학과 ICT융합공과대학에 해당합니다. 예를 들어, 공과대학의 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과 등은 수능 점수를 가산점으로 반영합니다. 또한 ICT융합공과대학의 컴퓨터공학과, 소프트웨어공학부, 인공지능학과, 전기공학과, 전자공학과, 디지털콘텐츠학과, 게임공학과, 영화학과 등도 수능 점수를 가산점으로 반영합니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적이 100% 반영된다는 원문 내용을 왜곡하고 있습니다. 원문에서는 수능 성적이 100% 반영된다고 명시하고 있지만, 생성된 응답에서는 각 영역이 25%씩 반영된다고 설명하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공하고 있습니다. 원문은 수능 성적이 100% 반영된다고 명시하고 있지만, 생성된 응답은 각 영역의 비율을 다르게 설명하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하고 있지만, 원문에서 강조하는 100% 반영이라는 핵심 내용을 간과하고 있습니다. 그러나 여전히 관련된 정보를 포함하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 원문과의 불일치로 인해 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 일관성이 있지만, 원문과의 내용 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 수능 성적이 100% 반영된다는 사실을 잘못 전달하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 원문과의 불일치로 인해 전반적으로 낮은 품질을 보입니다. 사실성, 일관성, 정확성에서 모두 부족한 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 반영에 대한 정보를 제공하지만, 원문과의 의미적 일치가 부족하여 적절성에서 다소 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7276913451565813</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 다음과 같이 반영됩니다:
+- **반영 영역**: 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목)
+- **반영 비율**: 각 영역이 25%씩 반영됩니다.
+따라서, 국어, 수학, 영어, 탐구의 각 영역에서 성적이 25%씩 반영되며, 이들 점수들의 합이 최종 평균 점수가 됩니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기고사 날짜에 대한 정보를 완전히 부정하고 있으며, 사실과 반대되는 내용을 포함하고 있습니다. 원본 텍스트에 명시된 날짜를 전혀 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 실기고사 날짜를 명확히 언급하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 없습니다. 실기고사 날짜에 대한 질문에 대해 전혀 관련 없는 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 부적절함으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있으나, 원본 텍스트와의 관련성이 떨어져서 전체적인 논리적 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 왜곡하고 있으며, 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있으나, 내용이 부적절하여 질문에 대한 명확한 답변을 제공하지 못하고 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.6729537237840658</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 2024학년도 가군 실기고사 날짜에 대한 내용이 없습니다. 다른 자료나 웹사이트를 참조해보시거나, 공식 홈페이지(https://ipsi. deu.ac.kr/main.do)에서 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다는 원문 내용을 잘못 반영하고 있습니다. 레저스포츠학과와 태권도학과가 제외된다고 언급했지만, 이는 사실이 아닙니다. 따라서 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 제외된 학과 목록과 생성된 응답에서 언급된 학과가 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 떨어집니다. 원문에서 제외된 학과에 대한 정확한 정보를 제공하지 않기 때문에 주제와의 관련성이 약합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원문과의 불일치로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 크게 다릅니다. 잘못된 학과 목록을 제시하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 품질 차원에서 생성된 응답이 매우 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 원문의 맥락을 잘못 이해하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.6327490799624305</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 수능(일반학생전형)에서 레저스포츠학과와 태권도학과는 제외됩니다. 
+따라서, 해당 전형에서는 다음과 같은 모집단위가 포함됩니다:
+- 인문사회과학대학 국어국문학과 - 교직
+- 경영학부 금융경영학과
+- 공과대학 건축학과(5년제)
+- 공과대학 건축공학과
+- 공과대학 토목공학과
+- 공과대학 도시공학과
+- 공과대학 화학공학과
+- 공과대학 응용화학과
+- 공과대학 신소재공학과
+- 공과대학 고분자나노공학과
+- 공과대학 경기지도학과
+레저스포츠학과와 태권도학과는 해당 전형에서 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련된 추가 정보를 제공하여 주제를 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽고 일관성이 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8324713819883317</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 
+참조할 데이터는 다음과 같습니다:
+```json
+{
+    "전형 유형": "수능 위주",
+    "전형명": "다군 수능(일반학생전형) 전 모집단위",
+    "모집 인원": 180,
+    "사정 단계": "일괄 합산",
+    "전형요소 반영비율(%)": {
+        "학생부 교과": 0,
+        "출결": 0,
+        "서류": 0,
+        "면접": 0,
+        "실기": 0,
+        "수능": 100
+    },
+    "수능최저기준": "수능최저기준 없음"
+}
+```
+따라서, 다군 수능(일반학생전형)에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과가 아동학과로 변경되었다고 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에는 여러 학과의 변경 사항이 나열되어 있지만, 생성된 응답은 하나의 학과에 대해서만 언급하고 있어 다소 불완전합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 전체적인 맥락에서 여러 학과의 변경 사항을 다루지 않고 있어 일관성이 떨어집니다. 원본 텍스트의 모든 학과 변경 사항을 포함하지 않기 때문에 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 직접적으로 관련이 있으며, 보육가정상담학과의 변경 사항을 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있는 부분이 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 명칭 변경에 대한 설명이 명확합니다. 그러나 여러 학과의 변경 사항을 다루지 않기 때문에 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 변경 사항에 대한 정확한 정보를 제공하고 있습니다. 그러나 원본 텍스트의 다른 학과 변경 사항을 포함하지 않아 완전한 정확성을 제공하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 관련성, 유창성, 일관성 등에서 좋은 점수를 받았습니다. 그러나 모든 학과의 변경 사항을 포함하지 않아 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 다른 학과의 변경 사항을 다루지 않기 때문에 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 그러나 모든 학과의 변경 사항을 포함하지 않아 완전한 이해를 제공하지는 않습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.5425178591083538</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 "보육·가정상담학과"가 "아동학과"로 명칭이 변경되었습니다. 또한, 이 학과는 구분명에 따라 학부에서 학과로 분리된 것으로 보입니다.
+상세 내용은 다음과 같습니다:
+- 2023학년도: 보육·가정상담학과
+- 2024학년도: 아동학과
+이와 같이 명칭 변경 및 분류 변경이 이루어졌습니다. 더 자세한 정보는 공식 웹사이트를 참조하시기 바랍니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일이 2024년 1월 6일(토) 18시라는 사실을 정확하게 반영하고 있습니다. 그러나 원서접수 시작일인 2024년 1월 3일(수)에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원서접수 마감일에 대한 정보를 일관되게 제공하지만, 원서접수 시작일에 대한 추가 정보가 원본 텍스트와 일치하지 않기 때문에 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원서접수 마감일에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 원본 텍스트의 핵심 내용을 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원서접수 시작일에 대한 정보가 추가되면서 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 마감일에 대한 정확한 정보를 제공하지만, 시작일에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 정확성 점수가 다소 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 추가로 인해 점수가 약간 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본 텍스트와의 일관성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.8104461365619902</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수(인터넷)는 2024. 01. 03.(수)부터 2024. 01. 06.(토)까지 마감되며, 마감일은 18시까지입니다.
+따라서 원서접수의 마감일은 **2024년 1월 6일(토) 18시** 입니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3  
+   - 생성된 응답은 일부 전형 요소에 대한 정보를 정확하게 반영하고 있지만, '학생부종합(성인학습자전형)'에 대한 설명이 누락되어 있으며, '학생부종합(조기취업형계약학과전형)'의 설명이 중복되어 있습니다. 따라서 일부 사실이 정확하지 않거나 누락되었습니다.
+2. Consistency Score (1-5): 3  
+   - 생성된 응답은 원본 텍스트의 일부 내용을 포함하고 있지만, 전형의 이름과 세부 사항이 일관되지 않으며, 중복된 정보가 포함되어 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있지만, 모든 전형 요소를 다루지 않아서 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 일부 정보가 중복되고 일관성이 부족하여 논리적인 흐름이 약간 떨어집니다. 전형 요소에 대한 설명이 명확하게 구분되지 않아 일관성이 부족합니다.
+6. Accuracy Score (1-5): 3  
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 전형의 세부 사항이 누락되거나 잘못된 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 전반적으로 생성된 응답은 여러 차원에서 평균적인 품질을 보이고 있으며, 일부 강점과 약점이 혼재되어 있습니다.
+8. Semantic Appropriateness Score (1-5): 4  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 전형에 대한 설명이 누락되어 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 중복된 정보와 누락된 세부 사항으로 인해 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.7704040783753064</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형들은 다음과 같습니다:
+1. **학생부종합(조기취업형계약학과전형)**:
+   - 2023학년도: 서류(학생부)70%+면접30%
+   - 2024학년도: 서류(학생부)60%+면접40%
+2. **학생부종합(성인학습자(정원내·외)전형)**:
+   - 2023학년도: 서류(학생부)70%+면접30%
+   - 2024학년도: 서류(학생부)60%+면접40%
+이와 같이, 2024학년도에는 학생부 종합 평가에서 면접 비율이 상승하였습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 실기 비중에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 실기 비중에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.840364829480816</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기가 70%의 비중을 차지합니다. 
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율" 섹션에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 세부 전공 목록을 정확하게 반영하고 있으며, 추가적인 설명도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공의 구성과 목표에 대한 설명이 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 세부 전공에 대한 설명이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전공의 설명이 자연스럽게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 추가된 설명도 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8613264816637103</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설되는 라이프융합학부는 세부 전공으로 다음과 같이 구성되어 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 세부 전공들은 학생들이 다양한 삶의 경험과 문화를 이해하고, 창업 및 투자에 대한 지식을 습득하며, 뷰티와 관련된 비즈니스 분야에서의 역량을 강화하는 것을 목표로 합니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군에서 실기고사에 참여해야 하는 학과에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 체육학과와 레저스포츠학과가 언급되었으나, 생성된 응답에서는 국어국문학과가 언급되어 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과를 언급하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 실기고사에 참여해야 하는 학과에 대한 정보인데, 생성된 응답은 다른 학과에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부정확하여 전체적인 품질에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 일관되지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.5745554526671079</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 응시해야 하는 학과로는 인문사회과학대학의 국어국문학과 - 교직이 있습니다. 이 학과에서는 수능 성적뿐만 아니라 실기고사 결과도 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 학과 목록과 일치하지 않습니다. 특히, "레저스포츠학과"와 "태권도학과"를 제외한 모든 학과가 지원 가능하다고 언급했으나, 원본 텍스트에서는 이 두 학과가 지원 가능한 학과로 포함되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트에서 지원 가능한 학과 목록을 제공했지만, 생성된 응답에서는 이 목록을 왜곡하여 잘못된 정보를 전달하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정보를 제공하고 있으므로 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보를 왜곡하여 전달하고 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 정보의 흐름은 있지만, 잘못된 정보로 인해 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 동의대학교의 전형에 대한 정보를 제공하고 있으나, 원본 텍스트와의 불일치로 인해 의미가 왜곡되었습니다. 따라서 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.6073205281470964</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "가군 실기/실적(일반학생전형)"과 "나군 실기/실적(일반학생전형)"이 있습니다. 이 두 학과는 레저스포츠학과와 태권도학과를 제외한 모든 학과에 해당됩니다.
+따라서, 동의대학교에서 실기/실적 위주 전형인 "가군 실기/실적(일반학생전형)"과 "나군 실기/실적(일반학생전형)"을 지원하려면 레저스포츠학과와 태권도학과를 제외한 모든 학과에서 지원이 가능합니다.
+만약 특정 학과에 대한 자세한 정보가 필요하다면, 해당 학과의 모집인원이나 전형요소 반영비율 등을 확인해보시는 것이 좋습니다. 더 궁금하신 점이 있으시다면 추가로 질문해주세요.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부가 제공하는 전공을 정확하게 나열하고 있으며, 신설된 학부라는 사실도 언급하고 있습니다. 그러나 "신설"이라는 표현이 전공명과 함께 사용된 것은 다소 혼동을 줄 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 전공을 나열하고 있으며, 전공의 수와 종류에 대한 정보가 일치합니다. 다만, "신설"이라는 단어의 사용이 약간의 혼란을 초래할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 전공에 대한 정보를 명확하게 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "신설"이라는 표현이 전공명과 함께 사용된 부분에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공에 대한 설명이 명확하게 이어집니다. 다만, "신설"이라는 표현이 전공명과 함께 사용된 부분에서 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 전공의 종류와 수에 대한 정보가 정확합니다. 그러나 "신설"이라는 표현이 전공명과 함께 사용된 점에서 약간의 부정확성이 있을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 모두 좋은 점수를 받고 있습니다. 다만, 약간의 어색함이 느껴지는 부분이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 "신설"이라는 표현이 전공명과 함께 사용된 부분에서 약간의 의미적 혼란이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 "신설"이라는 표현이 전공명과 함께 사용된 부분에서 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.8819391709542922</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다:
+1. 신설 (스타트업창업투자학)
+2. 뷰티비즈니스학 
+3. 라이프생활문화학
+이러한 세 가지 전공이 신설되어 있으며, 학생들은 이들 중 하나를 선택하여 공부하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 농어촌학생전형에 대한 언급이 없고, 마이스터고에 대한 설명이 다소 혼동을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 마이스터고에 대한 언급이 원문과 다르게 해석될 수 있어 일관성이 떨어집니다. 원문에서는 농어촌학생전형에 대한 제한이 명시되어 있으나, 생성된 응답에서는 이 부분이 누락되었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 특수목적고등학교 학생의 지원 가능성에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 마이스터고에 대한 언급이 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 대체로 일치하지만, 농어촌학생전형에 대한 제한 사항이 누락되어 있어 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으나, 일부 정보의 누락으로 인해 전반적인 품질이 약간 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 잘 부합하지만, 마이스터고에 대한 설명이 다소 모호하게 전달되어 의미가 혼란스러울 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.684779720527556</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이 동의대학교 일반학생전형으로 지원할 수 있습니다. 특수목적고등학교 학생인 경우 다음과 같은 학교에서 지원 가능합니다:
+- 과학고, 국제고, 외국어고
+- 예술고, 체육고 
+- 마이스터고
+따라서, 동의대학교에서는 일반고, 자율고, 특수목적고(과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고), 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 등 다양한 고등학교 유형의 학생들이 지원 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 나군 전형에서 가장 많이 모집하는 학과에 대한 정확한 정보를 제공하지 않고 있으며, 구체적인 학과명과 모집 인원에 대한 언급이 없고, 대신 일반적인 정보와 예시를 제시하고 있습니다. 이는 원본 텍스트의 핵심 사실을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 특히 가장 많이 모집하는 학과에 대한 명확한 답변을 제공하지 않고 있습니다. 이는 원본 텍스트와의 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 질문에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 떨어집니다. 예시를 통해 관련 정보를 제공하려고 하지만, 핵심 질문에 대한 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 정보가 분산되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 사실을 반영하지 않으며, 특히 모집 인원과 관련된 구체적인 정보가 누락되어 있습니다. 이는 정확성 점수를 낮춥니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 부족함이 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 질문에 대한 직접적인 답변이 부족하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 분산으로 인해 일부 부분에서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.6599641314825677</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과에 대한 정보는 제공된 데이터로 직접 확인할 수 없습니다. 하지만, 제공된 예시와 같이 많은 학과들이 모집되고 있으며, 정원외 모집인원을 보면 인문사회계열의 학과들이 상당히 많은 인원을 모집하고 있습니다.
+예를 들어, "인문사회과학대학"에서 "미디어커뮤니케이션학과", "심리학과  - 신설", "일본학과  - 교직", "중어중국학과  - 교직", "아동학과", "유아교육과  - 사범", "경찰행정학과", "소방방재행정학과" 등이 모집인원을 보면 많은 인원을 모집하고 있습니다.
+따라서, 가장 많이 모집하는 학과는 정확히 알려드리기 어렵지만, 인문사회계열의 학과들이 상당한 수의 인원을 모집하고 있는 것으로 보입니다. 자세한 정보를 얻으시려면 공식 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 학생이 동의대 농어촌학생전형에 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 마이스터고를 제외한 특수목적고 출신자는 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 지원할 수 없다고 명시된 특수목적고 출신자가 지원 가능하다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 정확성이 떨어지므로 전체적인 신뢰도는 낮아집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원문과의 불일치로 인해 혼란을 초래할 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 지원 자격에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성 모두 낮은 점수를 받았기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 의미적으로는 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 적절하지 않습니다. 원문의 의미와 상충하는 부분이 많습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 이해하기 쉬운 구조로 되어 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.7092413248109202</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생인 경우에도 동의대학교에서 농어촌학생전형을 통해 지원이 가능합니다. 그러나 지원 자격에 대한 세부 조건은 다음과 같습니다:
+- 일반고, 자율고, 특수목적고(과학고, 국제고, 외국어고), 특성화고, 영재학교, 기타 학력인정고, 방송통신고, 각종학교, 검정고시, 외국고 등 모든 고교유형의 학생이 지원 가능합니다.
+- 하지만, 특수목적고등학교 중 과학고, 국제고, 외국어고는 지원이 불가능합니다.
+따라서, 특수목적고등학교 학생이라도 지원이 가능하지만, 주의해야 할 점은 과학고, 국제고, 외국어고에 속한 경우 지원이 불가능하다는 것입니다. 자세한 사항은 동의대학교 입시 홈페이지를 참조하시거나 관계 부서에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있다고 주장하지만, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적 정보를 제시하고 있습니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없다고 말하고 있는데, 생성된 응답은 구체적인 성적 정보를 제공하여 주제와 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적인 점이 있어 완전한 일관성을 보이지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 상반되는 정보를 포함하고 있습니다. 원본 텍스트는 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 수치를 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 따라서 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성과 관련성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.6305342072144892</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 표준 변환 점수 합으로 450.71입니다.
+이 값은 "ICT융합공과대학" 섹션 내에서 "소프트웨어공학부" 모집단위에 대한 정보에서 얻을 수 있습니다. 해당 데이터는 다음과 같습니다:
+"국어 + 수학 + 탐구(2개)  (가산점 포함) 표준 변환 점수 합": 
+{
+    "평균": "330.11",
+    "표준 편차":  "9.08"
+},
+"영어 등급": 
+{
+    "평균": "3.30",
+    "표준 편차":  "0.82"
+},
+"수능 4개 영역 등급": 
+{
+    "평균": "4.12",
+    "표준 편차":  "0.32"
+},
+"수능 4개 영역  (가산점 포함) 표준 변환 점수 합": 
+{
+    "평균": "450.71",
+    "표준 편차":  "10.11"
+}</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있다고 주장하지만, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제시하고 있습니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 평균 성적에 대한 정보가 없음을 알리고 있으며, 생성된 응답은 그와 반대되는 내용을 담고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적입니다. 원본 텍스트와의 연결이 없기 때문에 일관성 점수가 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 따라서 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 원본 텍스트는 정보가 없음을 알리는데, 생성된 응답은 구체적인 정보를 제공하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.5704178190162585</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초 합격자 평균 성적은 표준 변환 점수 합으로 330.11입니다.
+이 값은 "ICT융합공과대학" 섹션 내에서 "소프트웨어공학부" 모집단위에 대한 "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합" 항목의 평균 값으로부터 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 최초 합격자 등록 일정과 등록금 납부에 대한 추가 정보를 포함하고 있어 원본 텍스트와 일부 차이가 있습니다. 원본 텍스트에는 등록 일정이 포함되어 있지 않으므로, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 일치하는 부분이 있지만, 추가된 등록 일정과 내용이 원본 텍스트와 일관되지 않습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 정보를 제공하고 있지만, 원본 텍스트에 없는 추가적인 등록 정보가 포함되어 있어 약간의 관련성 저하가 있습니다. 그러나 여전히 주요 주제와 관련이 있으므로 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 작성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정과 등록 정보를 명확하게 전달하고 있습니다. 그러나 원본 텍스트와의 차이로 인해 약간의 일관성이 떨어지므로 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정은 정확하게 반영하고 있지만, 추가된 정보가 원본 텍스트에 포함되어 있지 않으므로 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 원본 텍스트와의 차이로 인해 일부 점수가 낮아졌습니다. 전반적으로 양호하므로 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 주제와 관련된 정보를 제공합니다. 그러나 원본 텍스트와의 차이로 인해 약간의 부적절함이 있으므로 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 따라서 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8326814649861435</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+1. 최초 합격자 발표 및 등록금 납부:
+   - 일정: 2024년 2월 2일(금) 14:00
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+2. 최초 합격자 등록:
+   - 일정: 2024년 2월 7일(수) ~ 2024년 2월 13일(화)
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+3. 충원 합격자 발표 및 등록:
+   - 1차 발표: 2024년 2월 14일(수) 09:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - 1차 등록: 2024년 2월 14일(수) 09:00 ~ 16:00
+   - 2차 발표: 2024년 2월 15일(목) 09:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - 2차 등록: 2024년 2월 15일(목) 09:00 ~ 16:00
+   - 3차 이후 발표 및 등록:
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+       - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+이 일정을 참고하여 합격자 발표 및 등록에 대비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사의 정확한 일정이 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 면접고사 일정이 2024년 1월 20일이라고 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 상충합니다. 원본 텍스트는 면접고사 일정에 대한 명확한 정보를 제공하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 질문에 대한 답변으로 적절하지 않습니다. 원본 텍스트의 핵심 정보인 면접고사 일정에 대한 언급이 없고, 대신 일반적인 조언을 제공하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 면접고사 일정에 대한 정보가 없기 때문에 응답의 일관성이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 면접고사 일정에 대한 잘못된 정보를 제공합니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 면접고사 일정에 대한 질문에 대한 적절한 답변이 아닙니다. 그러나 일반적인 조언은 포함되어 있어 완전히 부적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져서 질문에 대한 명확한 답변이 부족합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3594191858746167</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 면접고사의 정확한 일정이 포함되어 있지 않습니다. 면접고사의 날짜와 시간은 일반적으로 입학처에서 공지합니다. 따라서 가장 신뢰할 수 있는 방법은 입학처 웹사이트나 관련 문서를 확인하거나, 직접 입학처에 문의하는 것입니다. 만약 더 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 반영하고 있지만, "2024학년도 한의예과에 대한 최저학력 기준은 제공된 정보에서 확인할 수 없습니다."라는 문구는 약간의 모호함을 포함하고 있습니다. 따라서 완전한 정확성은 아니지만, 전반적으로 사실에 부합합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, "제공된 정보에서 확인할 수 없습니다."라는 표현은 원본의 명확한 진술과 약간의 불일치를 보입니다. 원본은 최저학력 기준이 없다고 명확히 언급하고 있으므로, 이 부분에서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 추가적인 정보 제공을 위한 링크를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다. 그러나 원본 텍스트와의 연결이 약간 부족할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, "제공된 정보에서 확인할 수 없습니다."라는 표현이 다소 모호하여 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 약간의 모호함이 있어 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달되지만, 일부 표현이 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5624489789880778</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>2024학년도 한의예과에 대한 최저학력 기준은 제공된 정보에서 확인할 수 없습니다. 추가적인 자세한 내용을 파악하기 위해서는 공식 웹사이트를 참조하거나 관계부서에 문의하는 것이 좋습니다. 관련 링크는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 입니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 언급하고 있으며, 대부분의 학과에서 해당 기준이 없다고 설명하고 있습니다. 그러나 "특정 학과에서는 수능최저학력기준을 설정하고 있을 수 있다"는 부분은 원문에 명시된 정보와는 다소 차이가 있으며, 이는 불확실성을 내포하고 있습니다. 따라서 완전한 정확성은 없지만, 전반적으로 사실에 부합합니다.
+2. Consistency Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 특정 학과에서 기준이 있을 수 있다는 언급은 원문과 모순될 수 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5):
+   - 점수: 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 정보를 제공하고 있으며, 추가적인 정보도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 특정 학과에 대한 언급이 원문과의 일관성을 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5):
+   - 점수: 4
+   - 설명: 응답은 동의대학교의 수능 최저학력 기준에 대한 정확한 정보를 제공하고 있지만, 특정 학과에 대한 불확실한 언급이 있어 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5):
+   - 점수: 4
+   - 설명: 전반적으로 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높지만, 특정 학과에 대한 언급이 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5):
+   - 점수: 4
+   - 설명: 응답은 전반적으로 명확하고 이해하기 쉬우나, 특정 학과에 대한 언급이 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5836415606053966</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 보면, 대부분의 학과에서 수능최저학력기준이 없습니다. 하지만 특정 학과에서는 수능최저학력기준을 설정하고 있을 수 있으므로, 정확한 정보를 얻기 위해서는 해당 대학의 공식 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 대학 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 충원합격자 발표 일정의 일부를 정확하게 반영하고 있지만, 3차 이후 충원합격자 발표에 대한 정보가 누락되어 있습니다. 또한, "개별 전화 통보를 통해 안내될 예정입니다"라는 내용은 원본 텍스트에 포함되어 있지 않은 정보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가적인 정보가 포함되어 있어 일관성이 떨어집니다. 원본 텍스트의 모든 내용을 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 다루고 있지만, 추가적인 정보가 포함되어 있어 약간의 관련성이 떨어집니다. 그러나 여전히 주제와 관련된 정보가 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 일관성이 부족하여 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 모든 사실을 반영하지 못하고 있으며, 추가적인 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가적인 정보가 포함되어 있어 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.8850042627674501</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 다음과 같습니다:
+- 첫 번째 충원합격자 발표: 2024년 2월 14일 (수)
+- 두 번째 충원합격자 발표: 2024년 2월 15일 (목)
+이후 추가적인 충원합격자는 개별 전화 통보를 통해 안내될 예정입니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 추가합격자 발표일에 대한 정보를 제공하지 않으며, 원본 텍스트에 명시된 충원합격자 발표 일정과 관련된 내용을 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충합니다. 원본 텍스트는 구체적인 발표 일정을 제공하고 있지만, 생성된 응답은 이를 부정하고 있습니다. 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 없습니다. 원본 텍스트는 발표 일정에 대한 정보인데, 생성된 응답은 그에 대한 언급이 없고 다른 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관된 흐름이 없습니다. 원본 텍스트의 정보와 관련이 없기 때문에 논리적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 발표 일정에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다. 의미적으로도 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.3680543557449801</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 추가합격자 발표일에 대한 명시가 없습니다. 추가합격자 발표 일정은 대학의 공식 웹사이트나 입학처에서 확인해야 합니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 최신 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 정보가 없다고 언급하고 있지만, 원본 텍스트에서는 추가 모집이 발생할 수 있는 조건을 명확히 설명하고 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본 텍스트에서 언급된 추가 모집의 조건을 무시하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련이 있지만, 추가 모집에 대한 구체적인 정보를 제공하지 않고 웹사이트를 참조하라고만 하여 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 내용을 반영하지 않기 때문에 일관된 주제를 유지하지 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 추가 모집에 대한 정보를 부정확하게 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성 모두에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락을 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.4388152103579386</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보에서는 추가 모집에 대한 내용이 명시되어 있지 않습니다. 추가 모집이 있는지 확인하려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 보시는 것이 좋겠습니다. 해당 사이트에서 최신 정보와 공고를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌, 다른 전형에 대한 정보를 포함하고 있습니다. 모집 단위와 인원, 지원 자격 등이 원본 텍스트와 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 여러 면에서 일치하지 않으며, 서로 다른 전형에 대한 정보를 제공하고 있습니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌 다른 전형에 대한 정보를 포함하고 있어, 원본 텍스트와의 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 구조적으로는 일관성을 가지고 있으나, 원본 텍스트와의 관련성이 떨어져서 전체적인 맥락에서의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성과 관련성이 떨어져서 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.593795439681716</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 학생부종합전형의 일환으로, 평생교육을 받고 있는 성인이나 평생학습을 통해 자신의 역량을 향상시키고자 하는 사람들을 대상으로 합니다. 주요 특징과 절차는 다음과 같습니다:
+1. 지원 자격:
+   - 4대 보험 중 하나 이상 가입된 사업체에 재직 중인 성인
+   - 국가나 지방자치단체에서 발급한 공적증명서를 소지한 농업, 수산업 등의 1차 산업체 종사자
+   - 군 경력자
+2. 모집 단위 및 인원:
+   - 미래융합대학 인문사회 계열: 라이프융합학부 (신설) - 40명
+     - 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학
+   - 미래융합대학 인문사회 계열: 부동산자산경영학부 (부동산투자학, 부동산개발경영학) - 20명
+3. 전형 요소 반영 비율:
+   - 서류: 70%
+   - 면접: 30%
+4. 제출 서류:
+   - 고교 졸업(예정)자 또는 검정고시 출신자: 학교생활기록부
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업증명서, 성적증명서
+5. 서류 평가 영역 및 배점:
+   - 공동체역량 (140~98점)
+   - 학업역량 (280~196점)
+   - 전공적합성 (280~196점)
+6. 면접 평가 영역 및 배점:
+   - 학업역량: 문제해결능력 (180~126점)
+   - 전공적합성: 진로정보 탐색능력 (120~84점)
+7. 동점자 처리 기준:
+   - 면접고사 성적 상위자
+   - 서류평가 공동체역량 영역 성적 상위자
+   - 서류평가 전공적합성 영역 성적 상위자
+   - 교과 성적 상위자
+이러한 절차와 기준을 통해 평생학습자전형은 학생부종합전형의 일환으로 성인들의 역량 향상과 미래 사회에 필요한 인재 양성을 목표로 합니다.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직기간 산정, 4대 보험 가입 대상 사업체에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없는 정보로, 사실적으로 부정확합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 원본 텍스트는 고교 졸업자 또는 동등학력 소지자에 대한 지원자격을 설명하고 있지만, 생성된 응답은 산업체와 관련된 내용으로 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 질문에 대한 답변으로 적절하지 않습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본과 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다. 주제가 다르기 때문에 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제가 다르기 때문에 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용이 원본과 관련이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6646637383428389</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. **산업체 적용 범위**:
+   - 국가·지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. **재직기간 산정**:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+3. **4대 보험 가입 대상 사업체가 아닌 1차 산업 종사자**:
+   - 국가·지방자치단체가 발급하는 공적증명서 확인을 통해 인정할 수 있음
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사에 대한 구체적인 장소와 종목에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 대기실 및 입실시간에 대한 정보는 포함되어 있지 않으며, 잘못된 정보(화장실에서 실시된다는 내용)가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 실기고사 대기실 및 입실시간에 대한 정보가 누락되어 있습니다. 또한, 화장실에서 실시된다는 내용은 원본 텍스트와 상충합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사와 관련된 정보를 제공하지만, 원본 텍스트의 핵심 정보인 대기실 및 입실시간에 대한 언급이 없기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 정보가 분산되어 있어 논리적 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 특히, 실기고사가 화장실에서 실시된다는 내용은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 문제가 있습니다. 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 정보의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 정보의 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.3902796637110151</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 해당 모집단위와 관련된 장소에서 치러집니다. 예를 들어, 시각디자인, 산업디자인, 공예디자인의 경우 기초디자인과 사고의 전환 종목에 따라 각각 다른 화장실(캔트트지 크기: 켄트지3절 또는 켄트지2절)에서 실시됩니다. 또한 체육학과의 경우, 제자리 멀리뛰기, 메디신볼 던지기, Z-런 등 각각 다른 장소에서 실시될 수 있습니다.
+따라서 구체적인 장소는 모집단위와 종목에 따라 다릅니다. 해당 모집단위와 종목을 확인하시고, 관련 정보를 제공해 주시면 더 정확한 답변을 드릴 수 있을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사 장소에 대한 정보가 없다고 언급하고 있지만, 원본 텍스트는 실기고사 대기실 및 입실시간에 대한 정보를 제공합니다. 따라서, 응답은 일부 사실을 반영하고 있으나, 원본 텍스트의 핵심 정보를 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 원본 텍스트는 입실시간에 대한 정보를 제공하지만, 생성된 응답은 장소에 대한 정보가 없다고 주장합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 장소에 대한 정보를 찾는 질문에 대해 관련된 정보를 제공하려고 하지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못했습니다. 그러나 웹사이트 링크를 제공하여 추가 정보를 찾을 수 있도록 안내하고 있어 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 누락하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부 정보는 유용하지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 실기고사 장소에 대한 정보가 없다는 주장은 원본 텍스트의 내용을 완전히 반영하지 못합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.431736067183116</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 체육학과의 실기고사 장소에 대한 명시는 없습니다. 따라서, 정확한 실기고사 장소를 확인하려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 안내사항을 확인해 보시는 것이 좋습니다. 해당 사이트에서 모집단위별 세부 사항과 실기고사 장소 등 필요한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 하지 않는다는 사실을 완전히 반대하는 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 전화 통보가 이루어지지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 통보를 받을 수 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 떨어집니다. 전화 통보에 대한 잘못된 정보가 주를 이루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약해집니다. 전화 통보에 대한 잘못된 정보가 응답의 일관성을 해칩니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 내용을 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6610314116247187</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수시 충원합격자 발표 후에는 개별적으로 전화 통보를 받으실 수 있습니다. 하지만 모든 합격자는 홈페이지에서 개별 조회 가능하며, 고지서도 홈페이지에서 출력하거나 입학관리팀에서 받아볼 수 있습니다.
+만약 자세한 절차나 추가 정보가 필요하시다면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 정확하게 반영하고 있지만, 원본 텍스트가 한국어로 작성된 반면, 생성된 응답은 중국어로 작성되어 있어 언어적 차이가 있습니다. 그러나 정보의 본질은 일치합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관성을 유지하고 있습니다. 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 잘 전달하고 있으며, 추가적인 정보 제공 방법도 언급하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 매우 관련이 깊습니다. 수시모집 결과에 대한 정보가 없다는 점을 명확히 하고, 필요한 경우 확인할 수 있는 방법을 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 언어가 한국어가 아닌 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 원본 텍스트의 내용을 잘 요약하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 정보의 정확성도 높습니다. 다만, 언어적 차이로 인해 한국어 사용자에게는 다소 혼란을 줄 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있습니다. 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 언어적 차이로 인해 한국어 사용자에게는 다소 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다. 따라서 이해 가능성 점수는 다소 낮습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.7094106298240103</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>所提供的信息中并没有提到关于2023学年警察行政学系的自主招生结果。根据提供的上下文，主要描述了各个专业的招生类型、录取人数等信息，并没有包含具体的招生结果数据。
+如果您需要了解2023学年警察行政学系的具体招生结果，请访问以下网站以获取最新和详细的信息：
+https://ipsi.deu.ac.kr/main.do
+或者您可以直接联系学校招生办公室，他们能够提供最准确的招生结果信息。</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 "정시에 수능을 응시하지 않아도 지원이 가능합니다."라고 주장하지만, 원문에서는 "정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다."라고 명확히 언급하고 있습니다. 따라서, 생성된 응답은 원문과 상반되는 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있으며, 이는 일관성이 결여된 것입니다. 원문에서 수능 응시가 필수라고 명시했음에도 불구하고, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다. 원문에서의 질문에 대한 정확한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 설명을 포함하고 있지만, 원문과의 불일치로 인해 논리적 흐름이 약해집니다. 원문과의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있습니다. 수능 응시가 필수라는 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 상반되는 내용을 포함하고 있어, 맥락에 맞지 않습니다. 원문의 의도를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5293862253103948</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>네, 정시에 수능을 응시하지 않아도 지원이 가능합니다. 나군 수능(일반학생전형)에서는 실기/실적을 반영하여 지원할 수 있습니다. 
+특히, 학생부종합전형은 고교 성적 외에도 학생의 종합적인 능력을 평가하기 때문에 수능 응시 여부와 관계없이 지원이 가능합니다.
+또한, 나군에서는 다양한 전형을 통해 지원할 수 있으며, 각 전형별로 다른 요소를 반영하고 있습니다. 예를 들어:
+1. **학생부종합전형**: 학생부 성적 외에도 면접, 서류평가 등을 통해 종합적으로 평가합니다.
+2. **실기/실적전형**: 실기와 실적을 반영하여 지원할 수 있습니다.
+따라서, 정시에 수능 응시하지 않아도 다양한 전형을 통해 지원이 가능합니다. 구체적인 지원 방법과 전형 요소는 각 대학의 입학처 웹사이트를 참고하시거나 "https://ipsi.deu.ac.kr/main.do" 링크를 클릭하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났더라도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. 대다수의 대학이 고등학교 졸업 후 3~5년 이내에 입학을 지원할 수 있도록 제한하고 있다고 주장하지만, 이는 사실이 아닙니다. 원문에서는 모든 고등학교 졸업생이 정시 지원이 가능하다고 명시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 고등학교 졸업 시기와 관계없이 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 졸업 후 10년이 지났다면 지원이 어렵다고 주장합니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 주제의 핵심을 벗어나 있습니다. 원문이 정시 지원 가능성을 강조하는 반면, 생성된 응답은 지원이 어렵다는 내용으로 흐름이 바뀌어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 주제가 바뀌면서 흐름이 어색해질 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있습니다. 따라서 정확성 점수는 최하점입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 부적절합니다. 원문의 맥락을 잘못 해석하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.6463240030733644</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 고등학교 졸업 후 10년이 지났다면 일반적으로 정시 모집에 지원하는 것은 어렵습니다. 대다수의 대학은 고등학교 졸업 후 3~5년 이내에 입학을 지원할 수 있도록 제한하고 있습니다.
+하지만, 특정 전형에서 평생학습자나 성인학습자를 위한 특별전형이 있을 수 있으므로, "나군 학생부종합(평생학습자전형/성인학습자전형)"에 지원해 볼 것을 권장드립니다. 이 전형은 고등학교 졸업 후 3년 이상 경과한 성인을 대상으로 하며, 지원 자격 및 서류 제출 요건이 있습니다.
+더 자세한 정보는 해당 대학의 입시 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 학교 입시처에 문의해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 2024학년도 정시 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 정시 모집 절차에 대한 설명으로 대체되었습니다. 이는 원본 텍스트의 구체적인 사실과 일치하지 않으며, 중요한 세부사항이 누락되었습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 특정 일정과 절차를 명시하고 있지만, 생성된 응답은 일반적인 절차를 설명하고 있어 서로 상충하는 정보가 존재합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교의 정시 일정에 대한 질문에 대해 일반적인 정보를 제공하고 있으나, 원본 텍스트의 구체적인 내용과는 관련성이 떨어집니다. 따라서 적절한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 내용의 흐름이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 내부적으로 일관된 구조를 가지고 있으며, 각 단계가 논리적으로 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 일반적인 정보로 대체되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 원본 텍스트의 사실, 일관성, 관련성, 정확성에서 모두 부족한 점수를 받았습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 동의대학교의 정시 일정에 대한 질문에 대해 적절한 의미를 전달하고 있으나, 구체적인 사실이 부족하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽습니다. 그러나 원본 텍스트와의 관련성이 떨어져서 질문에 대한 답변으로서의 명확성은 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.6803269587291327</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정은 각 단과대학 및 모집단위별로 다소 차이가 있을 수 있습니다. 일반적으로 정시 모집일정은 다음과 같은 과정을 거칩니다:
+1. **모집공고 발표**: 동의대학교는 정시 모집일정을 공고 발표와 함께 진행합니다. 이때, 각 단과대학 및 모집단위별로 모집인원, 모집전형 등이 포함되어 있습니다.
+2. **지원서 제출**: 지원자는 공고된 일정에 따라 온라인으로 지원서를 제출해야 합니다. 서류제출 기간은 공고에서 명시되며, 이 기간 내에 지원서를 제출하지 않으면 지원이 불가능합니다.
+3. **면접 및 서류평가**: 일부 전형에서는 면접과 서류평가를 실시합니다. 이때, 각 단과대학 및 모집단위별로 평가방법과 일정이 다릅니다. 예를 들어, "나군 학생부종합(평생학습자전형/성인학습자(정원내·외)전형/재직자전형)"에서는 면접평가와 서류평가를 실시하며, 이 일정은 공고에서 명시됩니다.
+4. **결과 발표**: 모든 평가가 완료된 후, 동의대학교는 지원자의 합격 여부를 발표합니다. 이때, 합격자 명단이 공개되며, 지원자는 해당 결과를 확인할 수 있습니다.
+5. **등록**: 최종적으로 합격한 지원자는 등록을 진행해야 합니다. 등록일정은 합격공고와 함께 발표됩니다.
+상세 일정은 동의대학교 입학처 웹사이트에서 확인하실 수 있으며, 공고가 변경될 수 있으므로 정시 모집일정이 공지되는 시점부터 주기적으로 확인하는 것이 좋습니다. 또한, 각 전형별로 요구사항과 평가방법이 다를 수 있으니, 해당 전형의 세부 내용을 꼭 확인하시기 바랍니다.
+더 자세한 정보는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 정시 모집 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 대학 정시 모집 절차에 대한 설명으로 대체하고 있습니다. 이는 원본 텍스트의 사실과 일치하지 않으며, 중요한 세부사항이 누락되었습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 동의대학교의 구체적인 일정과 절차를 명시하고 있지만, 생성된 응답은 일반적인 정보로 대체되어 있어 서로 충돌하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교의 정시 모집 일정에 대한 질문에 대한 답변으로는 적절하지 않지만, 일반적인 대학 정시 모집 절차에 대한 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 내용과는 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 내용의 흐름이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 내부적으로 일관된 구조를 가지고 있으며, 각 단계가 논리적으로 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 동의대학교의 정시 모집 일정에 대한 정확한 정보를 제공하지 않으며, 일반적인 절차에 대한 설명으로 대체되어 있습니다. 이는 원본 텍스트의 사실과 일치하지 않기 때문에 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 품질 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족하며, 원본 텍스트의 핵심 내용을 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 일반적인 대학 정시 모집 절차에 대한 설명을 제공하지만, 동의대학교의 특정 일정에 대한 질문에 대한 적절한 답변이 아닙니다. 따라서 의미적으로 적절성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽습니다. 그러나 원본 텍스트와의 관련성이 부족하여 질문에 대한 답변으로는 적절하지 않습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.6984512833031066</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 정시 모집 일정에 대한 직접적인 내용이 포함되어 있지 않습니다. 그러나 일반적으로 대학의 정시 모집 일정은 다음과 같은 단계로 진행됩니다:
+1. **모집공고 발표**: 대학이 정시 모집을 위한 공고를 발표합니다. 이 때 모집단위, 모집인원, 전형요소 등에 대한 정보가 포함되어 있습니다.
+2. **접수 기간**: 학생들이 지원할 수 있는 일정 기간입니다. 이 기간 동안 서류 제출과 온라인 접수가 이루어집니다.
+3. **면접 및 서류평가**: 일부 전형에서는 면접을 실시하며, 서류 평가도 함께 진행됩니다. 이 때 각 전형별로 다른 절차와 기준이 적용됩니다.
+4. **결과 발표**: 모든 절차가 완료된 후 합격자 명단이 발표됩니다. 학생들은 이 결과를 통해 입학 여부를 확인할 수 있습니다.
+위의 단계는 일반적인 대학 정시 모집 일정을 나타내며, 동의대학교의 경우에도 유사한 절차가 적용될 것입니다. 제공된 정보에서 특정 모집단위나 전형에 대한 자세한 일정은 "다군 수능(일반학생전형) 모집단위 및 모집인원" 섹션을 참조하시면 도움이 될 것입니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 공식 웹사이트에서 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있다고 주장하지만, 원문에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답에서는 "학생부종합전형"을 통해 지원이 가능하다고 주장하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 주제와의 관련성이 낮습니다. 원문에서 요구하는 사실을 무시하고 다른 전형을 언급함으로써 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성을 고려할 때, 전반적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 완전히 상반되는 내용을 포함하고 있습니다. 수능 미응시자는 지원이 불가능하다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않는 내용을 포함하고 있습니다. 수능 미응시자가 지원할 수 있다는 주장은 원문의 의미와 완전히 상반됩니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 원문과의 불일치로 인해 독자가 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.6926728974589282</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형으로는 "학생부종합전형"이 있습니다. 이 전형에서는 수능 점수가 요구되지 않으며, 주로 학생부 기록과 면접을 통해 평가됩니다.
+특히 "나군 수능(일반학생전형)"에서의 "학생부종합(평생학습자전형/성인학습자전형/재직자전형)"은 수능 미응시자도 지원이 가능합니다. 이 전형에서는 학생부 기록과 면접을 통해 학업역량, 전공적합성 등을 평가받습니다.
+따라서 수능 미응시자도 동의대학교 정시 모집에서 지원할 수 있는 전형은 "학생부종합전형"입니다. 자세한 내용은 동의대학교 입학처 웹사이트를 참조하시거나, 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 전년도 전자공학과의 충원 합격 차수에 대한 구체적인 데이터가 없다고 언급하고 있지만, 원본 텍스트에서는 충원 합격이 36명까지 이루어졌다고 명시되어 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 충원 합격에 대한 구체적인 수치를 누락하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 충원 합격 차수에 대한 구체적인 정보가 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 사실을 완전히 반영하지 않으며, 중요한 정보를 누락하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질이 평균 이하로 평가됩니다. 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 핵심 정보를 놓치고 있어 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.7431865971141516</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 전년도 전자공학과의 충원 합격 차수에 대한 구체적인 데이터가 없습니다. 전형요소 반영비율, 모집인원 등과 같은 정보만 포함되어 있습니다. 
+이와 관련하여 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 해당 년도의 정시모집 합격자 명단 등을 확인해 보시거나, 대학 입학처에 직접 문의하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 전화번호가 제공되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본 텍스트는 전화번호를 명시하고 있지만, 생성된 응답은 전화번호가 없다고 잘못 언급하고 있습니다. 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 전화번호에 대한 질문에 대한 답변으로 적절하지 않습니다. 그러나 웹사이트 링크를 언급하여 관련성을 일부 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 불일치로 인해 일관된 흐름이 부족합니다. 전화번호에 대한 언급이 없다는 주장은 원본과의 연결을 약화시킵니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있습니다. 전화번호가 제공되었음에도 불구하고 이를 부정하는 내용은 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 저하된 응답입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 전화번호가 없다는 주장은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.711645050455356</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 추가적인 정보를 찾기 위해서는 동의대학교 입학처 웹사이트나 공식 연락처에 직접 문의하시는 것이 좋습니다. 필요하다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 링크를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에 대한 처리 방식을 잘못 설명하고 있습니다. 원문에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다고 명시하고 있지만, 생성된 응답은 이를 다르게 해석하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 내용을 포함하고 있습니다. 원문에서는 전화 통화가 되지 않을 경우의 처리 방식이 명확히 설명되어 있으나, 생성된 응답은 다른 방법으로 합격자를 결정한다고 하여 원문과 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 강조하는 전화 통화가 되지 않을 경우의 처리 방식에 대한 정보가 부족합니다. 그러나 입학안내 홈페이지나 입학관리팀에 문의하라는 제안은 유용한 정보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 다소 부족합니다. 전화 통화가 되지 않는 경우에 대한 설명이 원문과 일치하지 않기 때문에 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 크게 다릅니다. 전화 통화가 되지 않는 경우의 처리 방식에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하여 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성에서 모두 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 의미적으로 원문과 일치하지 않는 부분이 있어 적절성에서 다소 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.6330460538833389</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우는 해당 합격자를 처리하지 않습니다. 다시 다음 단계로 진행하거나 다른 방법을 통해 합격자를 결정하게 됩니다. 이와 관련된 자세한 내용은 입학안내 홈페이지를 참조하시거나 입학관리팀에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제출해야 할 서류에 대한 주요 내용을 잘 반영하고 있으나, 일부 세부사항이 누락되거나 다르게 표현되어 있어 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 특정 서류의 추가 요구사항이나 세부사항이 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있으나, 일부 세부사항이 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 일부 세부사항의 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현에서 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 세부사항이 누락되어 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7442242758575865</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 유형에 따라 다르지만, 일반적으로 다음과 같은 서류가 필요합니다:
+1. **6년 과정**
+   - 지원자 본인의 가족관계증명서 1부
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부
+2. **12년 과정**
+   - 지원자 본인의 주민등록초본 1부
+   - 초등학교 학교생활기록부 1부
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부
+3. **추가 제출서류**
+   - 고교 졸업증명서 (6년 과정)
+   - 고교 졸업증명서, 지원자 본인 초본 1부 (12년 과정)
+이 외에도 특정 유형에 따라 추가적인 서류가 필요할 수 있으므로, 정확한 요구사항은 해당 대학의 공식 웹사이트를 확인하시거나, 입학처와 연락을 취하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 고교 학교생활기록부가 필요하다고 언급하고 있지만, 원본 텍스트에서 요구하는 모든 서류를 포함하지 않고 있습니다. 특히, 주민등록초본, 초등학교 및 중학교 학교생활기록부, 고교 졸업증명서 등의 서류가 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 전체적인 요구 서류 목록과 일치하지 않아서 일관성이 떨어집니다. 특히, 원본 텍스트에서 요구하는 모든 서류를 언급하지 않아 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 농어촌학생전형에 대한 서류 제출에 관한 내용을 다루고 있어 관련성이 높습니다. 그러나 모든 서류를 포함하지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 더 매끄럽게 연결될 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에서 요구하는 모든 서류를 누락하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 정보의 누락으로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제에 적합한 의미를 전달하고 있으며, 문맥에 맞는 표현을 사용하고 있습니다. 그러나 모든 요구 사항을 포함하지 않아 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 정보를 전달하고 있습니다. 다만, 모든 서류를 포함하지 않아 일부 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8564777569842144</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정의 서류로는 고교 학교생활기록부가 필요합니다. 
+제출서류:
+- 고교 학교생활기록부 1부 (※ 학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+온라인 제공 동의를 한 경우 서류 제출이 면제되며, 발급처는 교육기관, 공공기관, 무인민원발급기 또는 인터넷 정부24에서 발급할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 "저소득 기회균등 전형"이라는 표현이 다소 혼동을 줄 수 있습니다. 원문에서는 기회균등 전형이 아예 존재하지 않는다고 명시하고 있으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 기회균등 전형이 선발되지 않는다는 내용을 전달하고 있습니다. 그러나 "저소득 기회균등 전형"이라는 표현이 원문과의 일관성을 약간 떨어뜨립니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "제공된 정보에는"이라는 시작 부분이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원문과의 연결이 명확합니다. 그러나 "저소득 기회균등 전형"이라는 표현이 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 대체로 일치하지만, "저소득 기회균등 전형"이라는 표현이 정확성을 약간 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일부 표현에서 약간의 부정확성이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 대체로 일치하지만, "저소득 기회균등 전형"이라는 표현이 원문의 맥락과 완전히 일치하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 특정 표현이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.5636610324267827</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 정시 모집에서 저소득 기회균등 전형이 선발되는 내용이 없습니다. 만약 더 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저등급에 대한 절사 여부에 대한 정보가 없다는 원문 내용을 무시하고, 절사법이 적용되지 않는다고 주장하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 언급된 정보와 일치하지 않으며, 절사법이 적용되지 않는다는 주장은 원문과 모순됩니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있지만, 원문에서 제공된 정보와는 다소 다른 방향으로 나아가고 있습니다. 그러나 여전히 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 응답의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 내용을 포함하고 있어 정확성이 낮습니다. 특히 절사법에 대한 잘못된 주장이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원문과의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.5972762155045649</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>4등급을 기준으로 한 수능 영역 중 사탐(사회)의 등급은 실수로 표현된 경우도 있으므로 정확한 해석이 필요합니다.
+사탐 2과목 평균산출 방식에 따라:
+- 만약 두 과목 모두 2.5등급을 받았다면, 이는 2.5등급으로 반영됩니다.
+- 절사법은 적용되지 않으므로, 2.5등급 그대로 반영합니다.
+따라서, 2.5등급이 나오면 그대로 2.5등급으로 처리될 것입니다. 정확한 해석을 위해서는 해당 대학의 입시 안내나 관련 부서에 문의하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 발표 차수를 4차로 언급하고 있지만, 원본 텍스트에서는 3차까지 발표가 이루어진다고 명시되어 있습니다. 또한, 3차 이후의 발표는 개별 전화 통보로 진행된다고 되어 있는데, 생성된 응답에서는 3차 이후에도 등록이 가능하다고 언급하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 3차까지 발표가 이루어진다고 명시하고 있지만, 생성된 응답은 4차 발표가 있다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보가 포함되어 있어 완전한 관련성을 가지지 않습니다. 그러나 발표 일정과 등록에 대한 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 발표와 등록에 대한 정보가 잘 연결되어 있지만, 발표 차수에 대한 혼란이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 발표 차수와 관련된 중요한 사실을 잘못 전달하고 있습니다. 원본 텍스트에 따르면 3차까지 발표가 이루어지며, 4차 발표는 존재하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성에서 큰 문제가 있으며, 정확성 또한 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.7850519239328404</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다. 
+1. **1차 충원 합격자 발표**: 2024년 2월 14일 (수) 09:00에 발표됩니다.
+2. **1차 충원 합격자 등록**: 같은 날인 2024년 2월 14일 (수) 09:00~16:00까지 진행됩니다.
+3. **2차 충원 합격자 발표**: 2024년 2월 15일 (목) 09:00에 이루어집니다.
+4. **2차 충원 합격자 등록**: 이날인 2024년 2월 15일 (목) 09:00~16:00까지 진행됩니다.
+마지막으로, 3차 이후의 합격자는 2024년 2월 15일부터 20일까지 개별 전화 통보를 통해 발표되며, 이 때도 등록이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 e-비즈니스학과의 수능 성적 평균을 5.32로 제시하고 있지만, 이는 제공된 원문에 명시된 평균 점수와 일치하지 않습니다. 원문에서는 최초 합격자와 최종 등록자의 평균 점수가 제공되었으며, 이와 관련된 정보가 잘못 해석되었습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충하는 정보를 포함하고 있습니다. 원문에서는 수능 4개 영역 등급이 4.6점일 경우 최초 합격자와 최종 등록자의 평균을 약간 상회한다고 언급했으나, 생성된 응답은 4.6점이 평균보다 낮다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문에서 질문한 내용과 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 떨어집니다. 원문에서 요구하는 정보와는 다소 동떨어진 결론을 내리고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 부분이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름이 원문과 맞지 않아 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공된 사실과 크게 다릅니다. 평균 점수와 표준 편차에 대한 정보가 잘못되어 있으며, 이는 정확성에 심각한 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받고 있습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원문과의 의미적 일치가 부족합니다. 잘못된 평균 점수와 표준 편차를 사용하여 결론을 도출하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 읽기 쉬운 부분이 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해하기 어려운 부분이 존재합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.6002508454265826</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2024학년도에 e비즈니스학과의 수능 성적 평균은 5.32이고, 표준 편차는 0.32입니다. 주어진 수능 성적이 4.6이면 이 수치는 평균보다 상당히 낮습니다.
+수능 성적의 표준 편차를 이용하여 주어진 점수가 어느 정도의 범위에 속하는지 계산해보겠습니다:
+1. 평균: 5.32
+2. 표준 편차: 0.32
+주어진 수능 성적(4.6)을 평균에서 뺀 후, 표준 편차로 나누면 다음과 같습니다:
+\[ \frac{4.6 - 5.32}{0.32} = \frac{-0.72}{0.32} = -2.25 \]
+-2.25는 약 -2.25 표준 편차를 의미합니다. 이는 매우 낮은 점수 범위에 속하는 것을 나타냅니다.
+따라서, 주어진 수능 성적(4.6)으로 e비즈니스학과의 정시 전형을 통과하기 어려울 것으로 보입니다. 하지만 최종 합격 여부는 여러 요소가综上所述，如果某人的高考成绩为4.6，在2024年e商业学专业的正常录取中是否有可能被额外录取呢？
+根据提供的数据，2024年e商业学专业的平均高考成绩是5.32分，标准差是0.32分。给定的高考成绩（4.6）比平均值低很多。
+我们可以通过以下计算来确定这个分数在多少个标准差范围内：
+\[ \frac{4.6 - 5.32}{0.32} = \frac{-0.72}{0.32} = -2.25 \]
+-2.25表示低于平均值约2.25个标准差。这是一个非常低的分数范围。
+因此，根据给定的高考成绩（4.6），在e商业学专业的正常录取中被额外录取的可能性很小。但最终是否能被录取还需考虑其他因素。建议查看具体的招生简章或咨询学校以获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 전형 요소와 합격 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 주요 사실을 잘 반영하고 있습니다. 그러나 원본 텍스트에서 언급된 평균 등급에 대한 구체적인 수치가 누락되어 있어 완전한 정확성은 다소 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 전형 요소에 대한 추가 정보가 포함되어 있어 원본의 주제와 약간의 불일치를 보입니다. 원본 텍스트는 정시 등급에 대한 합격 가능성에 중점을 두고 있지만, 생성된 응답은 전형 요소에 더 많은 비중을 두고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, e비즈니스학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다. 전형 요소와 관련된 정보는 질문에 대한 유용한 추가 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 다소 약해질 수 있는 부분이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전형 요소와 관련된 정보를 정확하게 제공하고 있지만, 원본 텍스트의 평균 등급 수치와 같은 구체적인 사실이 누락되어 있어 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 질문에 대한 적절한 답변을 제공합니다. 그러나 원본의 특정 세부 사항이 누락되어 있어 완전한 적합성은 다소 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6847324036079889</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 전형 요소 반영 비율을 살펴보겠습니다.
+e비즈니스학과는 학생부교과와 실기/실적 위주 전형으로 모집됩니다. 전형요소 반영 비율은 다음과 같습니다:
+- e비즈니스학과: 학생부 교과 18% + 출결 12% + 서류(실적) 70%
+정시 등급 5.3은 수능 점수로 환산하면 대략 400점 정도입니다. 하지만 e비즈니스학과는 전형이 "수능 위주"가 아닌 "학생부교과 + 실기/실적 위주"로 이루어져 있습니다.
+따라서, 정시 등급 5.3만으로는 합격 가능성은 매우 낮습니다. 수능 점수가 높지 않더라도, 학생부 교과 성적이 좋고 출결이 양호하며 실적 서류가 우수해야 최초 합격 가능성이 있습니다.
+만약에 정시 등급 5.3을 가지고 e비즈니스학과에 지원한다면, 수능 점수가 높은 다른 전형이나 학생부교과 위주 전형을 함께 준비하는 것이 좋습니다.
+더 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것을 추천드립니다. [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 38번 학생의 합격 가능성에 대한 구체적인 정보를 제공하지만, 원본 텍스트에서 명시된 "예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다"라는 사실을 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 예를 들어, "모집 인원이 적어 예비합격 가능성은 높습니다"라는 주장은 원본 텍스트의 내용과 상충합니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 예비 38번 학생의 합격 가능성을 다루고 있지만, 원본 텍스트의 핵심 내용인 예비 합격 가능성이 낮다는 점을 간과하고 있습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 전체적으로 논리적인 흐름이 부족합니다. 원본 텍스트의 주제와 연결되지 않는 부분이 있어 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있어 정확성 점수는 낮습니다. 예비 38번의 합격 가능성에 대한 잘못된 해석이 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 특히 문제가 있습니다. 따라서 다차원 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 예비 38번의 합격 가능성에 대한 잘못된 해석이 포함되어 있어 의미적으로 적절하지 않은 부분이 있습니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 원본 텍스트와 일치하지 않아 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.661161207825984</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>38번 학생의 경우, 전형 요소 반영 비율과 지원 자격 등을 고려해 보겠습니다.
+1. **전형 유형 및 전형명**: e비즈니스학전공은 "학생부종합(성인학습자(정원내·외)전형)"에 해당합니다.
+2. **모집 인원**: 7명입니다 (단, 모집 인원이 적어 예비합격 가능성은 높습니다).
+3. **전형요소 반영 비율**:
+   - 서류: 70%
+   - 면접: 30%
+4. **지원 자격**:
+   - 총 재직기간이 3년 이상(예정)이어야 합니다.
+   - 학교생활기록부, 검정고시 성적증명서 등 서류 제출이 필요합니다.
+5. **면접 평가 영역 및 배점**:
+   - 학업역량: 280점
+   - 전공적합성: 280점
+6. **예비합격 가능성**:
+   - 서류평가에서 높은 점수를 받는 것이 중요합니다.
+   - 면접에서도 학업역량과 전공적합성을 잘 보여줘야 합니다.
+38번 학생의 경우, 다음과 같은 요소들을 충족시켜야 예비합격 가능성은 높아질 것입니다:
+- **서류평가**에서 높은 점수를 받는 것이 중요합니다. 이는 학교생활기록부와 검정고시 성적증명서 등이 잘 작성되어 있어야 합니다.
+- **면접평가**에서도 학업역량과 전공적합성을 잘 보여줘야 합니다.
+따라서, 38번 학생의 경우, 서류평가에서 높은 점수를 받고 면접에서도 학업역량과 전공적합성을 잘 보여주면 예비합격 가능성은 높아질 것입니다. 하지만, 최종 결정은 입학사정관들의 평가에 따라 달라질 수 있으므로, 자세한 서류 준비와 면접 준비를 철저히 해야 합니다.
+더 궁금하신 점이 있다면, "https://ipsi.deu.ac.kr/main.do" 링크를 통해 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 경쟁률에 대한 정보를 포함하고 있으며, 정시 성적에 대한 분석도 제공하고 있습니다. 그러나 원본 텍스트에서 언급된 수능 4개 영역 등급 평균(3.37)과 비교하여 성적이 낮다고 언급하지 않았고, 평균 점수(353.48)와의 비교가 다소 혼동을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 점수와 정시 성적 간의 관계에 대한 설명이 다소 모호하여 일관성이 떨어집니다. 특히, 평균 점수와 정시 성적의 비교가 명확하지 않아 혼란을 초래할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 간호학과의 지원 자격 및 합격 기준에 대한 정보를 제공하며, 원본 텍스트의 주제와 직접적으로 관련이 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 평균 점수와 정시 성적 간의 비교가 명확하지 않아 약간의 일관성 부족이 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 경쟁률, 모집 인원, 평균 점수 등 정확한 정보를 제공하고 있습니다. 그러나 원본 텍스트의 특정 수치와 비교할 때 약간의 부정확성이 존재합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 긍정적인 평가를 받을 수 있습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현에서 약간의 혼란을 줄 수 있는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 평균 점수와 정시 성적 간의 비교가 명확하지 않아 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6595039431766661</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 지원 자격 및 합격 기준을 살펴보겠습니다.
+간호학과의 모집 인원은 22명이고, 지원 인원이 145명으로 경쟁률이 6.59입니다. 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 353.48이며, 이는 비교적 높은 수치입니다.
+당신의 정시 성적이 3.44로, 평균 점수인 353.48보다 약간 낮습니다. 그러나 표준 편차가 4.66이므로, 당신의 성적이 평균보다 약간 낮더라도 합격 가능성은 있습니다.
+특히, 간호학과는 수능 최저 기준이 없으므로, 성적만으로도 합격 가능성이 있습니다. 그러나 경쟁률이 높아서, 다른 지원자들의 성적이 당신의 성적보다 약간 낮더라도 충원 합격을 받을 수 있다는 점은 주의해야 합니다.
+결론적으로, 당신의 성적만으로는 합격 가능성은 있지만, 경쟁률과 평균 성적 등을 고려하면 확실한 합격을 보장받기 위해서는 더 높은 성적이 필요할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저 기준에 대한 언급이 없고, 성적 평균 및 경쟁률에 대한 정보가 잘못 해석되었습니다. 원본 텍스트의 정보와 일치하지 않으며, 잘못된 결론을 도출하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 특히, 성적 평균과 관련된 부분에서 원본의 내용을 왜곡하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 지원 자격을 판단하기 위한 여러 요소를 고려하고 있지만, 원본 텍스트의 핵심 정보와는 다소 동떨어진 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 논리적인 흐름이 다소 부족하여 일관성이 떨어집니다. 각 요소 간의 연결이 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 잘못된 결론을 도출하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 여러 차원에서 부족한 점이 많습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 일부 내용이 부적절하게 해석되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 복잡한 문장으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.5751171499781664</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과에 대한 지원 자격을 판단하기 위해서는 여러 요소를 고려해야 합니다.
+1. **수능 최저 기준**: 제공된 정보에는 수능 최저 기준이 없으므로, 이 부분은 문제에서 주어진 성적(2.52)만으로 판단할 수 없습니다.
+2. **성적 평균 및 표준 편차**: 제공된 데이터에 따르면 2024학년도 간호학과의 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48입니다. 지원자의 성적인 2.52는 이 평균보다 훨씬 낮습니다.
+3. **경쟁률**: 간호학과의 경쟁률이 6.59로 매우 높습니다. 이는 충원 합격자 수가 모집 인원에 비해 적은데, 지원자가 많은 것을 의미합니다.
+따라서, 제공된 정보만으로 판단하면 성적(2.52)이 간호학과의 평균 점수(353.48)보다 훨씬 낮고 경쟁률도 매우 높기 때문에 최종 합격 가능성은 매우 낮다고 볼 수 있습니다.
+하지만, 실제 합격 여부는 수능 최저 기준 등 추가 정보가 필요하며, 지원자의 전반적인 성적과 경쟁력을 고려해야 합니다. 따라서, 더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 관련 문화체육관광부 웹사이트를 참조하거나 직접 문의하는 것이 좋습니다.
+더 궁금하신 점이 있으시면 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 정시 성적 3.7이 간호학과의 평균 등급보다 낮다고 언급하고 있지만, 실제로는 평균 등급이 3.37이므로 3.7은 평균보다 높은 성적입니다. 따라서 이 부분에서 사실과 다릅니다. 또한, 학생부 교과 성적과 면접 성적의 중요성을 언급했지만, 원문에서 제공된 정보와는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 불확실성을 언급하고 있으며, 이는 원문과 일치하는 부분입니다. 그러나 정시 성적이 평균보다 높다는 점에서 원문과의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과에 지원할 때 고려해야 할 요소들을 잘 설명하고 있으며, 원문에서 제시된 질문과 관련이 있습니다. 그러나 원문에서 제공된 구체적인 데이터에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원문과의 연결성이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 정시 성적에 대한 정보가 부정확하여 정확성 점수가 낮습니다. 3.7의 성적이 평균보다 낮다고 언급한 부분이 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 평균 이하로 평가됩니다. 사실성과 정확성에서 문제가 있으며, 일관성과 관련성은 보통 수준입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.61503902936355</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 정시 성적을 가지고 간호학과에 합격할 수 있는지 확정적으로 말씀드리기는 어렵습니다. 하지만 간호학과는 일반적으로 중등 교육 기간 동안의 학업 성적이 중요한 요소로 작용합니다.
+2024년도 전형요소 반영비율을 보면, 대부분의 전형에서는 학생부교과성적이나 서류가 큰 비중을 차지하고 있습니다. 예를 들어, "학생부종합(조기취업형계약학과전형)"은 서류 60%와 면접 40%로 구성되어 있으며, 이는 학생의 학업 성적을 고려하는 것을 보여줍니다.
+따라서, 정시 성적이 3.7이라면, 간호학과에 지원할 때는 다음과 같은 점들을 주의해야 합니다:
+1. **학생부 교과성적**: 이 부분이 큰 비중을 차지하므로, 학생부 교과성적을 잘 준비하고 보완하는 것이 중요합니다.
+2. **면접 성적**: 면접에서도 자신의 열정과 간호에 대한 이해를 잘 전달해야 합니다.
+또한, 정시 성적이 3.7이라면, 일부 학교에서는 이 성적도 충분히 고려할 수 있으므로, 해당 학교의 최저 기준을 확인하고 지원하는 것이 좋습니다.
+만약 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do"를 참조하시거나, 대학 입학처에 직접 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 잘못 해석하고 있습니다. 원본 텍스트에 따르면, 정시 등급 2.58은 평균 등급보다 높은 성적이라고 명시되어 있으나, 생성된 응답에서는 이를 낮은 성적으로 잘못 판단하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 2.58이 평균보다 높은 성적이라고 했지만, 생성된 응답에서는 이를 낮은 성적으로 평가하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용을 잘못 해석하여 관련성이 떨어지는 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되지 않는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 전달하고 있습니다. 2.58이 평균보다 높은 성적이라는 사실을 무시하고 잘못된 결론을 내리고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성 모두에서 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락을 잘못 이해하여 부적절한 결론을 내리고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.7121088674187364</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집에 대한 정보를 바탕으로 평가해보겠습니다.
+간호학과는 "수능 위주"로 모집하며, 지원자의 수능 최저 기준이 없습니다. 따라서 수능 점수가 합격 가능성에 큰 영향을 미칩니다. 주어진 정시 성적인 2.58은 국어+수학+탐구(2개)의 표준 변환 점수 합으로 보아야 합니다.
+간호학과의 평균 점수는 353.48이며, 표준 편차가 4.66입니다. 주어진 성적인 2.58은 이 평균점수와 비교해보면 상당히 낮습니다.
+따라서, 정시 성적이 2.58인 경우 간호학과에 합격하기는 어려울 것으로 예상됩니다. 그러나 수능 점수가 높다면 합격 가능성은 조금 더 높아질 수 있습니다.
+만약 자세한 정보나 추가적인 지원 방법이 필요하다면, 동의대학교 입시 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조하시거나 관계된 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 7번의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 "충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다"는 사실을 명확히 반영하지 않고 있습니다. 경쟁률에 대한 언급은 있으나, 원본의 핵심 사실을 간과하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 예비 7번의 합격 가능성에 대한 정보가 모호하게 표현되어 있어 일관성이 떨어집니다. 원본 텍스트의 명확한 사실과는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 7번의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 사실을 충분히 반영하지 못하고 있습니다. 그러나 전반적으로 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실을 충분히 반영하지 못하고 있습니다. 예비 7번의 합격 가능성에 대한 정보가 명확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 사실을 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서의 역할을 잘 수행하고 있습니다. 그러나 원본 텍스트의 맥락을 완전히 반영하지는 못합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.6487944404363503</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>7번 지원자의 경쟁률은 5.33입니다. 현재 제공된 정보만으로는 정확한 충원 여부를 판단하기 어렵습니다. 경쟁률이 높기 때문에 충원에 성공할 확률은 낮을 수 있습니다.
+하지만, 최종적으로 붙을 수 있는지 결정하는 것은 모집단위의 충원 합격자 명단 발표 후에야 알 수 있습니다. 따라서, 현재로서는 붙을 가능성이 낮지만, 확실한 결과를 얻기 위해서는 모집단위의 충원 합격자 명단이 발표될 때까지 기다리는 것이 좋습니다.
+만약 더 자세한 정보나 조언이 필요하시다면, 해당 대학의 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 방문하여 최신 정보를 확인하거나, 직접 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 게임공학과의 평균 수능 등급을 잘못 제시하고 있습니다. 원본 텍스트에 따르면 평균 수능 등급은 4.78인데, 생성된 응답에서는 1.2로 잘못 기재되어 있습니다. 이는 심각한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 원본 텍스트는 4.16이 평균 등급보다 높다고 언급하지만, 생성된 응답은 4.16이 부족하다고 주장합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 그 관련성이 약해집니다. 원본 텍스트의 핵심 내용인 합격 가능성에 대한 정보는 포함되어 있으나, 잘못된 수치로 인해 신뢰성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 부분이 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원본 텍스트와의 연결이 약해져서 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 평균 수능 등급을 잘못 제시하고 있으며, 이는 정확성에 심각한 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 잘못된 정보로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 일부 반영하고 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6945698809129106</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 점수는 게임공학과에 지원하기에는 약간 부족한 편입니다. 게임공학과의 평균 수능 등급은 다음과 같습니다:
+- **2024학년도 모집단위**: "게임공학과"
+  - **수능 4개 영역 등급**:
+    - **평균**: 1.2
+    - **표준 편차**: 0.05
+4.16은 평균 수능 점수인 1.2보다 약간 높지만, 표준 편차가 매우 작기 때문에 이 차이는 상대적으로 크다고 볼 수 있습니다.
+따라서, 4.16의 수능 성적로 게임공학과에 추가 합격이 가능할지는 확실하지 않습니다. 하지만 지원을 하면 결과를 확인할 수 있으므로, 지원을 고려해 보시는 것이 좋습니다. 
+추가적으로, 지원 시 면접 및 서류 평가에서도 좋은 성적을 받는다면 합격 가능성은 높아질 것입니다. 따라서, 면접 준비와 서류 제출에 신경 쓰시는 것이 중요합니다.
+더 자세한 정보나 도움이 필요하시면 https://ipsi. deu. ac. kr/main. do를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 성적 기준에 대한 명확한 정보를 제공하지 않으며, 일반적인 전형 방식에 대한 언급이 있지만, 원본 텍스트의 구체적인 수치(영어 등급 평균 2.88, 수능 4개 영역 등급 평균 3.88)를 포함하지 않아 사실성이 떨어진다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 성적 기준에 대한 불확실성을 강조하면서도 원본의 구체적인 수치를 무시하고 있다. 따라서 일관성이 부족하다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 모집과 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 성적 기준에 대한 언급이 부족하여 약간의 관련성이 떨어진다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽다. 그러나 원본 텍스트와의 연결이 약간 부족하다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 성적 기준에 대한 정확한 정보를 제공하지 않으며, 원본 텍스트의 구체적인 수치를 반영하지 않아 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 낮다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 구체적인 내용과는 다소 차이가 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 원본 텍스트와의 연결이 부족하여 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.6868365930008931</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과의 정시 모집에서 성적 기준은 명확히 제공되지 않았습니다. 하지만 일반적으로 경영정보학과의 경우 학생부 교과성적을 반영하는 전형이 주를 이룹니다.
+현재 정보로는 2024학년도에 경영정보학과의 정시 모집에서 성적 기준을 충족했으니, 최초등록자로 가능할 것으로 보입니다. 하지만 최종 확정은 해당 대학의 공식 입학규정이나 모집요강을 확인해야 합니다.
+만약 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 최신 입학규정과 모집요강을 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 등급과 비교하여 4.2의 성적이 낮다는 점을 명확히 언급하지 않고 있습니다. 또한, 모집 인원과 지원 인원에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 일부 사실이 추가되었지만 원본의 핵심 사실을 간과했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 합격 가능성에 대한 판단을 어렵다고 언급하면서도 추가적인 정보를 제공하고 있습니다. 이는 원본의 결론과 다소 상충하는 부분이 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으며, 지원 인원과 경쟁률에 대한 추가 정보를 포함하고 있습니다. 그러나 원본 텍스트의 핵심 내용인 평균 등급에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높게 평가할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 원본 텍스트의 결론과 다소 다른 방향으로 전개되어 있어 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실을 간과하고 있으며, 추가된 정보가 원본의 사실과 일치하지 않을 수 있습니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 유창성과 관련성에서 높은 점수를 받았지만, 사실성과 일관성에서 다소 부족한 점이 있어 전반적인 품질은 양호하나 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 원본의 핵심 메시지를 완전히 반영하지는 못했습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 내용을 쉽게 파악할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6039596858335412</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 합격 가능성 판단이 어렵습니다. 최종합격 가능성은 모집단위, 지원 인원, 경쟁률 등 다양한 요인에 따라 달라질 수 있습니다.
+현재 데이터에서 경영정보학과의 지원 상황을 확인해보겠습니다:
+- **모집 인원**: 10명
+- **지원 인원**: 238명
+- **경쟁률**: 약 24.0 (238/10)
+이와 같은 경쟁률은 매우 높습니다. 그러나 최종 합격 가능성은 서류평가, 면접 평가 등 추가 요인에 따라 달라질 수 있습니다.
+**추천 사항:**
+1. **서류 및 면접 준비**: 서류평가와 면접평가에서 우수한 성적을 보여줄 수 있도록 철저히 준비하세요.
+2. **지원 자격 확인**: 나군 학생부종합전형의 지원 자격 요건을 다시 한 번 확인해보세요.
+3. **추천서 및 추천인**: 가능하다면 강력한 추천서를 받는 것이 도움이 될 수 있습니다.
+더 많은 정보가 필요하거나 추가 질문이 있다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 공식 사이트에서 자세히 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 점수 5.33이 평균보다 높다고 잘못 언급하고 있으며, 이는 사실과 다릅니다. 원문에서는 5.33이 평균 등급보다 낮다고 명시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 5.33이 경영정보학과의 평균 등급보다 낮다고 하였으나, 생성된 응답에서는 합격 가능성이 높다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 경영정보학과에 대한 정보를 제공하고 있으나, 원문에서 제시된 특정 점수와 관련된 정보와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 수능 점수에 대한 잘못된 해석을 포함하고 있어 정확성이 낮습니다. 원문에서 제시된 사실과 상충합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원문과의 일치성이 부족하고, 사실적 정확성도 떨어지기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원문과의 의미적 일치가 부족하여 적절성에서 다소 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6629865668023336</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과 일반학생전형에 대한 정보를 제공해 드리겠습니다.
+일반적으로, 동의대학교의 수능 위주 전형에서는 수능 점수가 학생들의 합격 여부에 큰 영향을 미칩니다. 주어진 평균 수능 점수는 432.67이며, 표준 편차가 6.24입니다.
+주어진 수능 점수인 5.33은 평균보다 약간 높습니다 (평균: 432.67, 주어진 점수: 5.33). 그러나 표준 편차를 고려하면 이 점수는 상대적으로 안정적입니다.
+따라서, 수능 점수가 5.33인 경우 동의대학교 경영정보학과 일반학생전형으로 합격할 가능성이 높습니다. 하지만 최종 합격 여부는 여러 요소에 따라 결정되므로, 정확한 결과를 확인하기 위해서는 대학 입학처와 직접 문의하거나, 해당 전형의 수능최저기준을 확인하는 것이 좋습니다.
+만약 더 자세한 정보가 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 전형과 관련된 정보를 제공하고 있으며, 성적 3.33에 대한 평가도 포함되어 있습니다. 그러나 최초등록자에 대한 언급이 부족하여 일부 정보가 누락된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 최초등록자 조건에 대한 언급이 없어서 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 바이오응용공학부에 지원하는 방법과 관련된 정보를 제공하고 있어 원본 텍스트의 주제와 매우 관련이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어지지만, 최초등록자 조건에 대한 언급이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전반적으로 정확한 정보를 제공하고 있으나, 최초등록자에 대한 조건이 명확히 언급되지 않아 일부 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 최초등록자 조건에 대한 언급이 부족하여 의미 전달이 완전하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.7184831867474548</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부에 지원하려면, 학생부 교과성적을 반영하는 전형이 주요합니다. 현재 제공된 정보를 바탕으로, 바이오응용공학부는 "학생부종합(조기취업형계약학과전형)"이라는 전형이 있습니다.
+"학생부종합(조기취업형계약학과전형)"의 경우, 2024년도에는 학생부 교과성적과 면접 성적이 반영됩니다. 구체적으로는 서류(학생부)가 60%와 면접이 40%를 차지합니다.
+현재의 성적인 3.33은 학생부 교과성적에서 좋은 점수로 평가될 수 있습니다. 그러나 바이오응용공학부는 "최초등록자"라는 조건을 제시하지 않았습니다. 따라서, 성적이 3.33 정도라면, 합격 가능성은 있으나 확실한 것은 아닙니다.
+결론적으로, 성적 3.33 정도로 바이오응용공학부에 지원하는 것은 가능합니다만, 최종 합격 여부는 전형 요소 반영 비율과 면접 성적 등 다양한 요인에 따라 결정됩니다. 따라서, 정확한 정보를 얻기 위해서는 동의대학교 입시 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조하거나 입학처와 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보를 제공하지 않고, 4.4의 등급으로 지원 가능성을 언급하고 있지만, 원본 텍스트에서 제시된 합격 가능성이 낮다는 점을 간과하고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있다고 언급하지만, 원본 텍스트에서는 4.4의 등급이 평균 등급보다 낮아 합격 가능성이 낮다고 명시하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 정보와 조언을 제공하고 있어 관련성이 높지만, 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있지만, 원본 텍스트와의 연결이 약해 다소 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있다고 하지만, 원본 텍스트의 정보와 상충하는 부분이 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 조언을 제공하고 있지만, 원본 텍스트의 맥락을 완전히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 언어로 작성되어 있어 이해도가 높습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6581713853715528</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>4.4의 등급으로 방사선학과에 지원하는 것은 가능하지만 경쟁률을 고려해야 합니다. 방사선학과는 학생들의 수능 성적과 전공 적합성 등을 종합적으로 평가하므로, 정확한 입학 가능성을 판단하기 위해서는 해당 학과의 최저 등급이나 최근 몇 년간의 합격자들의 수능 성적을 확인해 보시는 것이 좋습니다.
+또한, 방사선학과에 지원할 때는 전공 적합성과 관련된 활동 경험 등을 강조하는 것이 중요합니다. 예를 들어, 생명과학이나 의학 분야에서의 연구 활동, 관련 동아리 활동 등이 있습니다.
+마지막으로, 정시 모집의 경우 학교별로 지원 가능 인원이 제한되어 있으므로, 가능한 한 여러 대학과 학과에 지원하는 것이 좋습니다. 이를 통해 보다 안정적인 입학 기회를 확보할 수 있을 것입니다.
+더 자세한 정보나 도움이 필요하시다면, https://ipsi.deu.ac.kr/main.do 를 참조해 보시거나, 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트에서 제시된 평균 등급과 합격 가능성에 대한 내용을 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 방사선학과의 평균 등급에 대한 정보를 제공하지 않고 있습니다. 이는 원본 텍스트와의 일관성이 부족함을 나타냅니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 질문에 대한 답변을 제공하려고 하지만, 원본 텍스트의 핵심 정보와는 관련이 적습니다. 그러나 여전히 방사선학과에 대한 언급이 있으므로 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 따라서 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 반영하지 않으며, 방사선학과의 평균 등급과 합격 가능성에 대한 정보를 누락하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 관련성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 질문에 대한 답변을 시도하지만, 원본 텍스트의 맥락과는 다소 어긋납니다. 따라서 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 표현되어 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.5788341747787561</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 방사선학과에 대한 자세한 내용이 없습니다. 현재의 전형 요소 반영 비율이나 모집 단위 등에 대한 정보가 부족합니다. 
+방사선학과 정시모집군에 대한 자세한 변경사항이나 전형요소 반영비율 등을 확인하려면, 해당 대학의 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 방문하여 최신 정보를 확인해보세요. 
+또는 학교 관계자에게 직접 문의하시거나, 입시 관련 전문가와 상담을 받으시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 잘 반영하고 있으며, 서류 평가와 면접 평가의 중요성을 강조하고 있습니다. 그러나 "농어촌 전형"에 대한 구체적인 정보가 부족하여 약간의 사실성 결여가 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때 합격 가능성이 높다는 점을 잘 설명하고 있습니다. 다만, 서류 평가와 면접 평가에 대한 추가 정보가 원본 텍스트에 명시되어 있지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 지원자의 성적과 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 서류 평가와 면접 평가에 대한 설명이 다소 분리되어 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 전형 요소와 비율에 대한 정보를 제공하고 있으며, 성적에 대한 평가도 적절합니다. 그러나 일부 세부 사항이 원본 텍스트와 일치하지 않을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 긍정적인 평가를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 내용이 원본 텍스트와 다소 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 일부 문장에서 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5632251372645426</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 평균성적은 경찰행정학과 농어촌 전형에 충분히 합격할 수 있는 성적입니다. 그러나 정시 합격 여부는 단지 성적이 아닌, 서류평가와 면접평가 등 다양한 요소가 결합되어 결정됩니다.
+1. **서류평가**: 학교생활기록부를 통해 평가되며, 공동체역량, 학업역량, 전공적합성 등의 영역에서 점수를 받습니다. 성적이 높다면 서류평가에서도 좋은 결과를 얻을 수 있습니다.
+2. **면접평가**: 개별면접으로 진행되며, 지원동기와 학업계획, 학업역량, 전공적합성 등을 평가합니다. 면접에서는 자신감과 적절한 답변이 중요합니다.
+3. **전형요소 반영비율**: 경찰행정학과 농어촌 전형의 경우, 수능 70%, 실기 15%, 서류 15%, 면접 10%로 구성되어 있습니다. 성적이 좋은 만큼 수능 점수와 서류평가에서 우수한 결과를 얻을 수 있어 합격 가능성은 높습니다.
+따라서, 성적 외에도 서류와 면접 준비가 중요합니다. 서류는 교사의 평가를 받고, 면접에서는 지원동기와 학업계획 등을 잘 전달할 수 있도록 준비해보세요. 더 자세한 정보나 도움이 필요하시다면 https://ipsi. deu. ac. kr/main. do 를 참조해 보시는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 합격자에 대한 경쟁이 치열하다는 점을 언급하고 있지만, 원문에서 제공된 특정 학과에 대한 정보는 누락되어 있습니다. 또한, 수능 점수와 학생부 성적이 중요한 평가 요소라는 내용은 원문에 명시되어 있지 않으므로, 일부 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문에서 언급된 예비 합격자와 관련된 정보와 일치하지 않는 부분이 있습니다. 예를 들어, 수능 위주 전형에 대한 언급은 원문에 포함되어 있지 않으며, 이는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 수능 점수와 관련된 정보도 포함되어 있어 관련성이 높습니다. 그러나 원문에서 제공된 특정 학과 목록에 대한 언급이 없으므로 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 연결성이 떨어지는 부분이 있어 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 점수와 학생부 성적이 중요한 평가 요소라는 내용을 포함하고 있지만, 이는 원문에서 명시된 내용이 아닙니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 다소 부족함이 있으며, 관련성과 유창성은 양호하지만 전반적인 품질은 평균적입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 긍정적인 마음가짐을 유지하라는 조언도 포함되어 있어 의미적으로 적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 다만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.5407493464051484</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비 합격자는 경쟁이 매우 치열할 것입니다. 현재 제공된 정보만으로는 정확한 확률을 계산하기 어렵습니다. 하지만 수능 위주 전형인 경우, 수능 점수와 학생부 교과 성적 등이 중요한 평가 요소입니다.
+정시 일반학생전형의 경우, 수능 최저 기준 없음이라는 정보를 보면, 수능 점수가 매우 중요할 것입니다. 따라서 수능 점수를 높게 맞추는 것이 가장 좋은 방법일 것 같습니다.
+또한, 학생부 교과 성적이나 출결 등이 평가 요소로 포함되지 않는다는 점을 고려하면, 수능 점수가 주요 평가 기준이라는 것을 다시 한 번 확인해 보세요. 
+더 자세한 정보를 얻기 위해서는 해당 대학의 입시 홈페이지나 학부모 상담실에 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 많은 정보를 확인하실 수 있습니다.
+이런 상황에서 긍정적인 마음가짐을 유지하는 것도 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 법경찰행정학부에 대한 정보가 잘못된 부분이 있습니다. 원문에서는 법경찰행정학부가 존재하지 않는다고 명시하고 있지만, 생성된 응답에서는 해당 학부에 대한 지원 방법과 성적 기준을 언급하고 있습니다. 이는 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원문과 일관성이 없습니다. 원문에서 법경찰행정학부가 존재하지 않는다고 명시했음에도 불구하고, 생성된 응답에서는 해당 학부에 대한 정보를 제공하고 있습니다. 이는 서로 모순되는 내용입니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 법경찰행정학부에 대한 정보를 제공하고 있지만, 원문에서 해당 학부가 존재하지 않는다는 점을 간과하고 있습니다. 따라서 관련성은 있지만, 주제와 맞지 않는 정보가 포함되어 있어 점수가 낮습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 여러 요소를 나열하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 법경찰행정학부에 대한 정보가 원문과 상충되기 때문에 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원문에서 제공된 사실과 일치하지 않는 정보를 포함하고 있습니다. 법경찰행정학부가 존재하지 않는다는 점을 무시하고 관련 정보를 제공하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮다고 평가할 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 전체적인 의미 전달이 왜곡되었습니다. 따라서 점수가 중간 정도입니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7234690813166379</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 법경찰행정학부에 정시로 지원하려는 경우, 전형요소 반영비율과 수능최저기준을 고려해야 합니다. 하지만 현재 제공된 정보에는 해당 학부의 정시 모집단위와 관련된 구체적인 평균 성적 또는 수능 최저 기준이 포함되어 있지 않습니다.
+법경찰행정학부는 주로 '학생부교과', '면접' 등에 중점을 둔 전형을 사용하므로, 학생부 교과성적과 면접 성적이 중요합니다. 특히, 법경찰행정학부와 관련된 전공적합성이나 학업역량이 요구되므로, 지원자의 관심사와 열정을 잘 보여줄 수 있는 경험담 등을 준비하는 것이 좋습니다.
+현재 제공된 정보를 바탕으로 추측하자면:
+1. **학생부 교과성적**: 대부분의 전형에서 학생부 교과성적이 중요한 요소입니다. 90점 이상의 성적을 받는다면 안정권에 들어갈 수 있을 것입니다.
+2. **수능 최저기준**: 현재 정보에는 해당학부의 수능최저기준이 명시되어 있지 않으므로, 동의대학교 전체의 수능 최저 기준을 참고해야 합니다. 2023년도 동의대학교의 수능 최저 기준은 국어: 54점, 영어: 61점, 수학(선택): 78점, 사회: 59점, 자연: 59점이었습니다.
+3. **면접 성적**: 면접에서도 학업역량과 전공적합성에 대한 질문이 주로 이루어지므로, 지원자의 답변이 중요합니다.
+따라서, 법경찰행정학부에 정시로 들어갈려면:
+- **학생부 교과성적** 90점 이상
+- **수능 최저기준**을 충족하는 수능 점수 (예: 국어 54점 이상, 영어 61점 이상 등)
+- **면접 성적**이 우수한 경우 안정권에 들어갈 수 있을 것입니다.
+하지만 이는 추측이며, 실제 지원 결과는 학교별로 다르게 평가될 수 있으므로, 동의대학교 입학처 웹사이트나 전화 문의를 통해 최신 정보와 정확한 요구사항을 확인하는 것이 좋습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과가 아동학과로 변경되었다는 사실을 정확히 반영하고 있으며, 정시 등급이 5.33인 경우의 합격 가능성에 대한 분석도 적절합니다. 그러나 아동학과의 평균 등급에 대한 정보가 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 보육가정상담학과의 변경 사항과 합격 가능성에 대해 설명하고 있습니다. 다만, 일부 세부 사항(예: 평균 등급)에서 차이가 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 보육가정상담학과의 합격 가능성에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 일부 정보가 추가되면서 약간의 복잡성이 생겼습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 정시 등급과 관련된 정보도 정확합니다. 그러나 아동학과의 평균 등급에 대한 정보가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 부족함이 있어 완전한 점수를 주기에는 아쉬움이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 세부 사항에서 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.600783961556972</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 지원 자료를 바탕으로 분석해보겠습니다.
+보육가정상담학과는 아동학과로 변경되었으며, 해당 단과대학의 경쟁률과 합격 점수를 확인하겠습니다. 
+2024년도 모집단위에 대한 정보는 다음과 같습니다:
+- 모집 인원: 19명
+- 지원 인원: 36명
+- 경쟁률: 1.89 (36 / 19)
+- 충원 합격 (후보순위): 13명
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 286.80입니다.
+정시 산출 등급이 5.33인 경우, 이는 수능 4개 영역 등급의 평균을 초과합니다. 동의대학교 보육가정상담학과의 수능 4개 영역 등급 평균은 5.18입니다.
+따라서 정시 산출 등급이 5.33인 경우, 이는 동의대학교 보육가정상담학과의 수능 4개 영역 등급 평균을 상회하므로 합격 가능성은 높습니다. 하지만 최종 합격 여부는 지원자의 전체 점수와 경쟁률, 충원 합격자 수 등을 고려해야 합니다.
+따라서 정시 산출 등급이 5.33인 경우, 동의대학교 보육가정상담학과에 합격할 가능성이 높다고 판단됩니다. 하지만 최종 결정은 입학사정관실에서 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 충원 합격자 발표 일정에 대한 일부 정보를 제공하지만, 원본 텍스트의 세부 사항을 정확히 반영하지 않습니다. 예를 들어, 발표 날짜가 '19일'로 언급되었으나, 원본 텍스트에서는 '2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지'로 명시되어 있습니다. 또한, 면접 성적과 서류 평가 점수에 대한 언급은 원본 텍스트에 포함되어 있지 않은 정보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 추가적인 정보가 포함되어 있어 일관성이 떨어집니다. 예를 들어, 면접 준비와 서류 확인에 대한 조언은 원본 텍스트에 없으며, 이는 원본의 내용과 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 면접 준비와 서류 확인에 대한 추가 정보는 원본 텍스트의 핵심 주제와는 약간 벗어납니다. 그러나 예비 번호와 합격 가능성에 대한 언급은 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 일관성이 부족하여 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 세부 사항을 잘못 전달하고 있습니다. 특히 발표 날짜와 관련된 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 다소 부족하지만, 관련성과 유창성은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 추가된 정보가 원본의 의도와 다소 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장은 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.7663398804463356</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과 충원 합격자 발표 및 등록금 납부 일정을 보면, 3차 충원 합격자는 19일 오후 7시까지 발표됩니다. 이 시점에서 예비 12번으로 받았다면, 합격 가능성은 있습니다.
+하지만 확실한 것은 아닙니다. 합격 여부는 면접 성적과 서류 평가 점수 등 여러 요소에 따라 결정되므로, 최종 결과를 확인하기 위해서는 기다려야 합니다. 
+합격 가능성을 높이기 위해 다음과 같은 조치들을 취할 수 있습니다:
+1. 면접 준비: 지원동기와 학업계획을 명확하게 준비하고, 학업역량과 전공적합성에 대한 내용을 철저히 검토합니다.
+2. 서류 확인: 제출서류의 진위 여부를 다시 한 번 확인하여 허위사실이 없도록 합니다.
+최종 결과가 발표될 때까지 기다리시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 4.75라는 성적이 높은 점수라고 언급하고 있지만, 유아교육학과의 경우 4.75로 지원하기 어려운 점을 간과하고 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 유아교육학과에 4.75로 지원할 가능성이 크다고 주장하지만, 원본 텍스트에서는 4.75로는 지원하기 어렵다고 명시하고 있습니다. 이로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보를 제공하고 있으며, 관련된 질문에 대한 답변을 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관된 주제를 유지하지 못하고 있습니다. 이로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 유아교육학과에 대한 지원 가능성에 대한 정보가 원본 텍스트와 상충합니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원본 텍스트와의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7261528312752346</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 성적은 매우 높은 점수입니다. 대부분의 대학에서 수능 위주 전형에서는 학생부 교과성적이 중요하지 않거나 거의 반영되지 않는 경우가 많습니다. 따라서 4.75라는 높은 성적을 가지고 있다면, 유아교육학과에서도 좋은 결과를 얻을 가능성이 큽니다.
+유아교육학과의 경우, 학생부 교과성적이 중요하지 않거나 적게 반영되는 전형이 많습니다. 따라서 4.75라는 높은 성적을 가지고 있다면 유리한 입지가 될 것입니다. 하지만 정확한 결과는 해당 대학의 전형 요소와 비율, 그리고 그해의 경쟁률 등에 따라 달라질 수 있으므로, 최종적인 확신을 얻기 위해서는 해당 대학의 공식 정보를 확인하는 것이 좋습니다.
+더 자세한 내용이나 추가 질문이 있다면 언제든지 물어보세요. https://ipsi.deu.ac.kr/main.do 를 참조하시거나, 직접 학교에 문의하시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률과 수능 최저 기준에 대한 정보를 추가했지만, 아동학과의 평균 등급이 6.33이라는 사실을 잘못 해석하여 4.30으로 제시했습니다. 이는 사실과 다르며, 환산 등급이 평균보다 낮다고 언급했지만, 실제로는 평균보다 높은 성적을 가지고 있다는 점에서 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 아동학과의 평균 등급에 대한 잘못된 정보로 인해 일관성이 떨어집니다. 경쟁률과 수능 최저 기준에 대한 정보는 추가되었지만, 전체적인 일관성은 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 지원 자격과 경쟁률에 대한 정보를 제공하여 원본 텍스트의 주제와 관련이 있지만, 아동학과의 평균 등급에 대한 잘못된 정보로 인해 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 아동학과의 평균 등급에 대한 잘못된 정보로 인해 전체적인 일관성이 약간 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 아동학과의 평균 등급에 대한 잘못된 정보로 인해 정확성이 떨어집니다. 환산 등급에 대한 해석도 부정확합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실과의 불일치로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 아동학과의 평균 등급에 대한 잘못된 해석으로 인해 약간의 부적합성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.6266446485332215</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과(아동학과)의 지원 자격 및 경쟁률을 고려해보겠습니다.
+1. **경쟁률**: 6.59 (지원 인원 145명, 모집 인원 22명)
+2. **수능 최저 기준**: 없음
+3. **등급 평균**: 4.30 (영어 등급)
+현재 지원자의 환산등급이 4.16이며, 이는 평균보다 약간 낮습니다. 하지만 경쟁률이 높지 않아서, 지원자가 학업역량을 잘 보여주고 있다면 충분히 합격 가능성이 있습니다.
+추합까지 생각한다면, 추합 점수를 확인해야 합니다. 추합 점수가 평균 이상이라면 더 큰 확률로 합격할 수 있을 것입니다.
+추합 점수를 확인하시거나, 추가적인 정보가 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)에서 자세한 내용을 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 무시하고, 정시 지원에 대한 정보를 제공하고 있습니다. 이는 원본 텍스트와 상충하는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순되는 정보를 포함하고 있습니다. 소프트웨어융합학과는 정시로 지원할 수 없다는 사실과 관련된 정보가 전혀 일치하지 않습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 정보를 제공하려고 하지만, 원본 텍스트의 질문에 대한 직접적인 답변이 아닙니다. 정시 지원이 불가능하다는 점을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 무시하고 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 응답이 원본 텍스트와 일치하지 않으며, 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.4310692472092248</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과를 정시로 지원하려는 경우, 해당 학과의 경쟁률과 수능 최저 기준을 고려해야 합니다. 현재 제공된 데이터에서 "소프트웨어공학부"와 관련된 정보가 있습니다.
+- **소프트웨어공학부**에 대한 평균 등급은 다음과 같습니다:
+  - **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 
+    - 평균: "530.21"
+    - 표준 편차: "7.68"
+따라서, 소프트웨어공학부를 정시로 지원하려면 대략적으로 530점 이상의 수능 점수를 받아야 합니다.
+만약 특정 단과대학의 소프트웨어융합학과에 대한 정보가 더 필요하다면, 해당 학과의 공식 웹사이트나 입학처에 문의하시는 것이 좋습니다. 또한, 정시 모집군이 변경되었는지 확인해 보세요. 
+더 자세한 정보를 원하시면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 주십시오.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 평가 방식과 서류 준비 방법에 대한 정보를 잘 전달하고 있으며, 원본 텍스트의 주요 내용을 반영하고 있습니다. 그러나 일부 세부 사항이 추가되어 있어 원본 텍스트와 완전히 일치하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일관성을 유지하고 있습니다. 다만, 추가된 세부 사항이 원본 텍스트의 정보와 완전히 일치하지는 않지만, 전반적으로 일관된 내용을 제공합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 섹션이 잘 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가된 정보도 관련성이 높습니다. 그러나 원본 텍스트의 모든 세부 사항을 포함하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장은 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.6085410199711535</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>《소프트웨어융합학과에 대한 면접 평가와 서류 준비 방법》
+1. **면접 평가**:
+   - **평점 영역**: 학업역량, 전공적합성 등이 주요 평가 항목입니다.
+   - **공통 질문**: 지원동기 및 학업계획, 학업역량, 전공적합성에 대한 질문들이 있습니다.
+2. **서류 준비**:
+   - **고교 졸업(예정)자**: 고교 학교생활기록부 1부를 제출해야 합니다.
+     - 학생부 온라인 제공 동의자는 제출할 필요 없음
+     - 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+   - **검정고시 출신자**: 검정고시 합격증서 사본 또는 합격증명서 1부와 검정고시 성적증명서 1부를 제출해야 합니다.
+     - 학교생활기록부 대체 서류(제출여부 선택 가능)
+   - **외국고교 졸업(예정)자**: 공증받은 외국고교 졸업(예정)증명서 1부와 공증받은 외국고교 성적증명서 1부를 제출해야 합니다.
+     - 학교생활기록부 대체 서류(제출여부 선택 가능)
+     - 모든 서류는 원본 제출을 원칙으로 합니다.
+3. **주의사항**:
+   - **허위사실**: 창의적 체험활동에 기재된 동아리 활동, 진로 활동 등 세부 내용 확인 시 기억이 나지 않는다고 답변하는 경우 학교생활기록부에 기재된 내용 그 이상의 경험적 사실을 설명하지 못하는 경우 부정적 사례로 처리될 수 있습니다.
+   - **블라인드 면접**: 개인 신상(수험번호, 성명, 출신고교, 부모 직업 등) 노출 금지이며 교복 착용 금지입니다.
+따라서, 소프트웨어융합학과에 지원하려면 학교생활기록부와 관련 서류를 체크하고 정확하게 제출해야 합니다. 또한 면접에서는 지원동기에 대한 진심 어린 답변을 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 평균 성적 4.12에 대한 언급은 정확하지만, "약간 낮은 점수"라는 표현은 사실과 다릅니다. 4.08은 평균보다 약간 높은 수준으로 언급되었으나, 생성된 응답에서는 낮은 점수로 잘못 해석되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 성적에 대한 해석에서 일관성이 부족합니다. 원본에서는 4.08이 평균보다 약간 높은 수준이라고 명시했으나, 생성된 응답에서는 낮은 점수라고 언급하여 모순이 발생합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 합격 가능성에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 성적 해석에서의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 성적 해석에서의 오류로 인해 정확성 점수가 낮아졌습니다. 4.08이 평균보다 낮다고 잘못 언급되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 평균적입니다. 사실성과 일관성에서 문제가 있지만, 관련성과 유창성은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 성적 해석에서의 오류로 인해 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 성적 해석의 오류로 인해 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7707634827254403</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 최초합격자의 평균 수능 4개 영역 등급이 4.12였습니다. 
+당신의 성적이 4.08이라면, 약간 낮은 점수입니다. 그러나 표준 편차가 0.32라는 것을 고려하면, 평균보다는 약간 낮지만 여전히 합격 가능성은 있습니다.
+결론적으로, 성적이 4.08이라면 소프트웨어공학부에 최초합격하는 것은 가능하지만, 경쟁률이 높아서 확실한 것은 아닙니다. 동의대학교에서 제공하는 정보를 바탕으로, 합격 가능성은 있으나 안정적인 선택을 위해서는 다른 대학이나 전형을 고려해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 소프트웨어공학부에 대한 정보로 변경되었습니다. 이는 원본 텍스트와의 일관성을 잃게 만듭니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 포함하고 있습니다. 원본 텍스트는 소프트웨어융합학과에 대한 정보만을 제공하고 있으며, 소프트웨어공학부에 대한 언급은 일관성이 없습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 소프트웨어융합학과와 관련된 질문에 대한 답변으로 보이지만, 소프트웨어공학부에 대한 정보로 전환되면서 관련성이 떨어졌습니다. 원본 텍스트의 주제와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해져서 전체적인 일관성이 떨어집니다. 주제가 변경되면서 응답의 일관성이 저하되었습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 소프트웨어융합학과에 대한 정보가 아닌 소프트웨어공학부에 대한 정보를 제공하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 이로 인해 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 소프트웨어융합학과에 대한 질문에 소프트웨어공학부로 답변한 것은 부적절합니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 주제가 변경되면서 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 작성되었습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6373798349941008</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부의 경우, 평균 5등급은 경쟁률이 높은 학과 중 하나입니다. 각 모집단위별로 지원 인원과 모집 인원이 다르므로 정확한 가능성을 판단하기 위해서는 해당 단과대학 및 모집단위의 경쟁률을 확인해야 합니다.
+예를 들어, "소프트웨어공학부"에서 특정 학과(예: 소프트웨어공학과)에 지원할 경우:
+- 지원 인원이 많고 모집 인원이 적은 경우에는 5등급으로 충분히 경쟁력을 갖추는 것이 가능합니다.
+- 반면, 지원 인원이 적고 모집 인원이 많은 경우에는 5등급만으로 충분한 경쟁력을 갖추기는 어렵습니다.
+따라서, 정확한 답변을 위해서는:
+1. 해당 단과대학 및 모집단위의 지원 인원과 모집 인원을 확인합니다.
+2. 평균 점수와 표준 편차를 고려하여 5등급이 어느 정도 경쟁력을 갖추는지 판단합니다.
+만약 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나 대학 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 4.28이라는 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높다고 명시하고 있으며, 합격 가능성이 높다고 판단하고 있습니다. 그러나 생성된 응답은 합격 확률이 낮다고 주장하고 있어 사실관계에 어긋납니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 합격 가능성이 높다고 언급하는 반면, 생성된 응답은 낮다고 주장하고 있습니다. 이로 인해 두 텍스트 간의 정보가 상충하게 됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으나, 원본 텍스트의 결론과는 다르게 해석하고 있습니다. 경쟁률, 표준 변환 점수 등 추가적인 정보를 제공하여 관련성을 높이고 있지만, 원본의 핵심 메시지와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 이유를 제시하고 있지만, 이들이 원본 텍스트의 결론과 어떻게 연결되는지 명확하지 않습니다. 따라서 논리적 흐름이 다소 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 4.28이라는 성적이 합격 가능성이 높다고 판단하고 있으나, 생성된 응답은 그 반대의 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일관성이 부족하며, 사실관계에서도 오류가 있습니다. 따라서 전반적인 품질이 낮다고 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 다르게 해석하고 있으며, 원본의 맥락과는 맞지 않는 주장을 하고 있습니다. 그러나 일부 내용은 여전히 관련성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 원본 텍스트의 결론과 상충하는 부분이 있어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6709934569220304</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 합격할 확률은 높지 않을 것으로 보입니다.
+이유는 다음과 같습니다:
+1. **신소재공학과의 경쟁률**: 제공된 데이터에서 신소재공학과(56명 모집, 81명 지원)의 경쟁률은 약 1.45입니다. 이는 상대적으로 높은 경쟁률을 보여줍니다.
+2. **표준 변환 점수**: 제공된 데이터에서 신소재공학과의 "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합"의 평균은 286.97이고, 표준 편차는 15.35입니다. 이는 신소재공학과에 지원하는 학생들의 성적이 상대적으로 높다는 것을 의미합니다.
+3. **성적 비교**: 제공된 데이터에서 가장 낮은 평균 점수 합은 한의예과(수학&lt;확률과통계&gt;) 396.29이고, 가장 높은 평균 점수 합은 인공지능학과 415.80입니다. 이 중 신소재공학과는 중간 수준에 위치하고 있습니다.
+따라서, 4.28이라는 성적을 가지고 동의대학교 신소재공학과에 합격하기 위해서는 다음과 같은 조치를 취할 필요가 있을 것입니다:
+1. **면접 준비**: 면접 평가에서 좋은 점수를 받기 위해 충분한 준비를 해야 합니다.
+2. **서류 준비**: 서류평가에서도 높은 점수를 받기 위한 준비를 해야 합니다.
+결론적으로, 4.28이라는 성적을 가지고 동의대학교 신소재공학과에 합격할 확률은 낮지만, 적절한 준비를 하면 가능성을 높일 수 있습니다. 더 자세한 정보나 조언이 필요하시다면 "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 자기소개서가 필요 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 자기소개서가 필요 없다는 점을 반복적으로 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 자기소개서의 필요성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.6120258085772718</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>2024학년도 다군 수능(일반학생전형)에서는 자기소개서 작성은 필요하지 않습니다. 제출서류는 학생부 온라인 제공 동의가 있는 경우에만 학생부를 온라인으로 제공 받습니다. 따라서, 자기소개서 작성은 필수사항이 아닙니다.
+자세한 내용은 "다군 수능(일반학생전형) 제출서류" 항목을 참조하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 제공하고 있으며, 합격 가능성을 평가하기 위한 요소들을 잘 설명하고 있습니다. 그러나, "국어+수학+탐구(2개)의 표준 변환 점수"라는 표현은 원문에 명시된 "수능 4개 영역 등급"과는 다소 차이가 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문에서 언급된 내용과 대체로 일관성을 유지하고 있습니다. 그러나, 특정 학과의 예시가 원문과 다르게 제시되어 있어 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 매우 관련성이 높습니다. 합격 가능성을 평가하기 위한 요소들을 잘 설명하고 있어 주제에 적합합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 요소가 잘 연결되어 있습니다. 그러나, 특정 예시가 추가되면서 약간의 복잡함이 생겼습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 특정 세부사항에서 약간의 차이가 있어 완전한 정확성에는 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부사항에서의 불일치로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 일치하고 있으며, 주제에 적합한 내용을 담고 있습니다. 다만, 일부 표현에서 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나, 일부 문장에서 복잡한 표현이 사용되어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.7483313679734885</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능 정시 모집에서 국어+수학+탐구(2개)의 표준 변환 점수가 4.5를 받았다면, 추가모집에 들어갈 확률을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **모집단위와 지원 인원**: 각 모집단위별로 모집인원과 지원인원이 다르므로 경쟁률이 달라질 수 있습니다.
+2. **경쟁률**: 지원한 단과대학의 경쟁률을 확인해야 합니다. 예를 들어, 경쟁률이 높은 학과에서는 4.5점으로 충분히 선발될 수 있지만, 경쟁률이 낮은 학과에서는 더 높은 점수를 요구할 수 있습니다.
+3. **평균점수와 표준편차**: 지원한 단과대학의 평균점수와 표준편차를 확인하여 자신의 점수가 어느 정도에 위치하는지 판단해야 합니다.
+예를 들어, "상경대학 경영학과"는 모집인원이 15명이고 지원인원이 65명으로 경쟁률이 높습니다. 이 경우 평균점수와 표준편차를 고려하여 자신의 점수가 어느 정도에 위치하는지 판단해야 합니다.
+따라서, 정확한 답변을 위해서는 지원한 단과대학의 모집단위별 정보를 확인하시거나, 제공된 데이터를 바탕으로 분석해보시는 것이 좋습니다. 만약 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 공식 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 평균 등급과 관련된 정보를 포함하고 있으며, 경쟁률과 모집 인원에 대한 추가적인 세부사항을 제공합니다. 그러나 원본 텍스트에서 제공된 평균 등급 정보(영어 5.06, 수능 5.78)에 대한 직접적인 언급이 없으므로 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 신소재공학과와 고분자나노공학과의 모집 인원 및 경쟁률에 대한 정보를 제공합니다. 그러나 원본 텍스트의 평균 등급 정보와는 다소 차이가 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 신소재공학과의 합격 기준에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 원본 텍스트의 주요 주제를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 잘 구성되어 있어 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 섹션이 잘 연결되어 있어 일관된 메시지를 전달합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 평균 수능 변환 점수와 관련된 정보를 제공하지만, 원본 텍스트의 평균 등급 정보와는 다소 차이가 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되었지만, 일부 정보의 정확성에서 부족함이 있어 전체적으로 높은 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6838512550808161</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과의 경우, 지원자의 수능 점수와 경쟁률을 고려하여 평균적인 합격 기준을 파악해보겠습니다.
+신소재공학과는 두 가지 모집단위로 나뉘어 있습니다:
+1. **신소재공학과**: 
+   - 2024학년도 모집 인원: 56명
+   - 지원 인원: 81명
+   - 경쟁률: 약 1.45 : 1
+2. **고분자나노공학과**:
+   - 2024학년도 모집 인원: 37명 (신소재공학과와 합쳐진 경우)
+   - 지원 인원: 81명
+   - 경쟁률: 약 2.19 : 1
+이 두 단위를 볼 때, 신소재공학과의 경쟁률은 약 1.45 : 1로 상대적으로 낮습니다. 그러나 고분자나노공학과는 경쟁률이 약 2.19 : 1로 높아집니다.
+**평균적인 합격 기준을 파악하기 위해**:
+- **신소재공학과**: 평균 수능 변환 점수 합은 399.26입니다.
+- **고분자나노공학과**: 평균 수능 변환 점수 합은 415.80입니다.
+따라서, 신소재공학과의 경우 대략적으로 400점 이상이면 합격 가능성이 높아 보입니다. 그러나 정확한 합격 기준은 매년 변동되므로, 최신 정보를 확인하는 것이 좋습니다. 또한 경쟁률이 높은 고분자나노공학과의 경우 415점 이상을 목표로 하는 것이 좋을 수 있습니다.
+더 자세한 정보는 동의대학교 입시 홈페이지 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 학교 관계자에게 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수를 396.29점으로 제시하고 있지만, 원본 텍스트에서는 378.15점으로 명시되어 있습니다. 이로 인해 사실관계에 큰 오류가 발생하였고, 따라서 점수는 낮게 평가됩니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공하고 있습니다. 특히 평균 점수에 대한 정보가 상충하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 맞춰 신소재공학과의 점수와 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 특히 평균 점수에 대한 정보가 혼란을 초래합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 특히 평균 점수에 대한 잘못된 정보가 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실관계와 일관성에서 큰 문제가 발생하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 정보를 제공하고 있으나, 원본 텍스트와의 차이로 인해 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 복잡한 수식과 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7767345916393248</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집단위별 표준 변환 점수 합의 평균과 표준 편차를 보면, 작년 신소재공학과의 경우 다음과 같은 정보가 있습니다:
+- **평균**: 396.29
+- **표준 편차**: 0.68
+현재 제시된 점수인 447점은 작년 평균보다 상당히 높습니다 (447 - 396.29 = 50.71). 이는 표준 편차를 고려할 때 매우 높은 점수입니다.
+- **표준 편차**: 0.68
+이 값으로부터 50.71을 나누면:
+\[ \frac{50.71}{0.68} \approx 74.39 \]
+이는 표준 정규 분포에서 매우 높은 점수를 의미합니다 (대략 99.99% 이상의 확률). 따라서, 작년 신소재공학과 최종 평균이 447점보다 높게 나올 가능성은 매우 낮습니다.
+하지만, 정확한 결과는 입시 당일 발표되는 최종 점수에 따라 결정되므로, 최신 정보와 공식 발표를 확인하는 것이 가장 정확할 것입니다. 만약 궁금한 점이 더 있으시다면, 동의대학교 입학처 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나 직접 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 일반학생전형에 대한 정보를 제공하고 있지만, 수능 최저 기준이 없다는 부분은 사실과 다릅니다. 신소재공학부의 전형은 수능 위주로 이루어지며, 수능 최저 기준이 존재할 수 있습니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 수능 최저 기준에 대한 언급이 잘못되어 있어 일관성이 떨어집니다. 원본 텍스트는 합격 가능성에 대한 정보를 제공하고 있지만, 생성된 응답은 불확실성을 강조하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신소재공학부의 전형에 대한 정보를 다루고 있습니다. 그러나 일부 내용은 원본 텍스트의 핵심 포인트와는 다소 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 포인트가 명확하게 연결되어 있습니다. 그러나 수능 최저 기준에 대한 잘못된 정보로 인해 약간의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 수능 최저 기준에 대한 잘못된 언급으로 인해 정확성이 떨어집니다. 원본 텍스트의 사실과 일치하지 않는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 수능 최저 기준에 대한 잘못된 정보로 인해 의미 전달이 약간 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5844234144416728</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 성적이 4.1~4.2 정도로 예상된다면, 신소재공학과의 일반 학생 전형에 붙는 것은 가능성이 있지만 확실하지 않습니다. 신소재공학과의 일반 학생전형은 수능 위주로 이루어지며, 수능 최저 기준이 없으므로 주요 요인은 수능 점수와 성적입니다.
+현재 상황에서 다음과 같은 점을 고려해야 합니다:
+1. **수능 최저기준**: 신소재공학과는 수능 위주로 모집하므로, 수능 점수가 중요합니다.
+2. **성적 평균**: 4.3 등급대의 성적이 예상대로 4.1~4.2 정도라면, 이는 좋은 성적입니다. 하지만 학교별로 성적 평균이 다르므로, 해당 학교의 성적 평균을 확인해야 합니다.
+3. **전형요소 반영비율**: 전형요소 반영 비율은 0%로 되어 있으므로, 성적이 주요 요인입니다.
+따라서, 수능 점수와 성적을 고려하여 신소재공학과의 일반 학생전형에 지원하는 것이 좋습니다. 하지만 확실한 결과를 얻기 위해서는 해당 대학의 입시 정보 페이지나 관계자에게 직접 문의하는 것이 가장 정확합니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조하거나, 학교 입시 관련 부서에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교 인공지능학과의 수능 성적 반영 방법에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제공된 구체적인 성적 데이터(모집 인원, 지원 인원, 경쟁률 등)는 포함되어 있지 않습니다. 따라서 일부 사실이 누락되어 있어 4점을 부여합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 성적 데이터와 관련된 정보가 누락되어 있어 일관성이 떨어집니다. 특히, 원본 텍스트의 성적 정보와 반영 방법이 서로 다른 주제를 다루고 있어 3점을 부여합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 동의대학교 인공지능학과에 지원하기 위한 수능 성적의 중요성과 반영 방법에 대한 정보를 제공하고 있어 원본 텍스트의 주제와 매우 관련이 깊습니다. 따라서 5점을 부여합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 따라서 4점을 부여합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 점수 계산 방법이 명확하게 설명되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 4점을 부여합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 수능 성적 반영 방법에 대한 정확한 정보를 제공하지만, 원본 텍스트의 구체적인 성적 데이터가 누락되어 있어 4점을 부여합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 양호한 성과를 보이지만, 원본 텍스트의 중요한 세부사항이 누락되어 있어 4점을 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 맥락에 적합한 의미를 전달하고 있지만, 원본의 구체적인 성적 데이터가 포함되지 않아 약간의 차이가 있습니다. 따라서 4점을 부여합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 원본 텍스트와 연결되지 않아 약간의 혼란을 줄 수 있습니다. 따라서 4점을 부여합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.7558384230303206</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인공지능학과로 지원하려면, 수능 성적이 중요합니다. 수능 성적 반영방법은 다음과 같습니다:
+1. **국어(화법과작문 or 언어와매체)**: 25%
+2. **수학(확률과통계 or 미적분 or 기하)**: 25%
+3. **영어**: 25%
+4. **탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목)**: 25%
+예를 들어, 국어의 표준점수가 100점이고, 수학의 표준점수가 100점이고, 영어의 등급이 4등급이고, 탐구 영역의 표준점수가 각각 80점이라면, 총 점수는 다음과 같습니다:
+- 국어: 100 * 25% = 25
+- 수학: 100 * 25% = 25
+- 영어: 4등급에 해당하는 점수가 115점이므로, 115 * 25% = 28.75
+- 탐구: (80 + 80) / 2 * 25% = 40
+따라서 총 점수는 25 + 25 + 28.75 + 40 = 118.75점입니다.
+이렇게 각 영역의 점수를 합산하여 최종 성적을 산출합니다. 실제 지원 시에는 해당 과목별 표준점수와 등급에 따른 점수를 확인해야 합니다. 자세한 정보는 동의대학교 입학처 웹사이트에서 확인할 수 있습니다. https://ipsi. deu.ac.kr/main.do
+추가로, 인공지능학과는 2024년도에는 다군 수능(일반학생전형)으로 모집이 이루어질 예정입니다. 따라서, 동의대학교 입학처 웹사이트에서 최신 정보를 확인하시고 지원 준비를 하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27 성적에 대한 추합 가능성을 판단하기 위해 필요한 정보에 대해 언급하고 있지만, 원본 텍스트에서 제공된 구체적인 학과별 성적 평균과 표준 편차에 대한 정보는 포함되어 있지 않다. 따라서, 일부 사실이 누락되어 있다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일치하는 부분도 있지만, 구체적인 학과별 성적 정보를 제공하지 않기 때문에 일관성이 떨어진다. 원본 텍스트에서 제시된 정보와는 다소 차이가 있다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 5.27 성적에 대한 추합 가능성을 다루고 있어 관련성이 높지만, 원본 텍스트에서 제공된 구체적인 학과 정보와 비교할 때 다소 부족하다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 잘 작성되어 있다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽다. 그러나 원본 텍스트의 구체적인 정보가 부족하여 완전한 일관성을 제공하지는 않는다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 5.27 성적에 대한 일반적인 정보는 제공하지만, 원본 텍스트의 구체적인 데이터와 비교할 때 정확성이 떨어진다. 특히, 특정 학과의 성적 기준에 대한 정보가 누락되어 있다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 유용한 정보를 제공하지만, 원본 텍스트의 구체적인 세부사항이 부족하여 다소 아쉬운 점이 있다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제에 적합한 의미를 전달하고 있으나, 원본 텍스트의 구체적인 내용과는 다소 차이가 있다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 언어로 작성되어 있어, 독자가 쉽게 이해할 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.6263487710350875</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 추합 가능성을 판단하기 위해서는 몇 가지 정보가 필요합니다:
+1. **정시 모집군**: 어떤 정시 모집군에 지원할 계획인지 확인해야 합니다.
+2. **최저학점 기준**: 해당 모집군의 최저학점 기준은 무엇인지 알아야 합니다.
+일반적으로 동의대학교의 정시 모집군별 최저학점 기준을 보면, 대부분의 학과는 4.0 이상이 요구됩니다. 따라서 5.27이라는 성적은 상당히 높은 점수로, 대부분의 정시 모집군에서는 충분한 성적으로 추합 가능할 것으로 보입니다.
+하지만, 특정 학과나 모집군에 대한 최저학점 기준이 더 까다롭다면, 그 부분을 확인해야 합니다. 예를 들어, 경영학과나 인문사회계열의 일부 학과는 4.5 이상이 요구될 수 있습니다.
+따라서, 정확한 추합 가능성을 판단하기 위해서는 동의대학교의 공식 입학정보 사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하거나, 입학처에 직접 문의하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 관련된 정보를 포함하고 있지만, 제공된 수치(330.11, 9.08 등)는 원본 텍스트에 명시된 내용과 일치하지 않으며, 이로 인해 일부 사실성이 떨어진다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하고 있지만, 추가된 정보(경쟁률, 지원 인원 등)가 원본 텍스트와 일관되지 않으며, 이로 인해 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 합격 가능성에 대한 논의가 포함되어 있어 관련성이 높지만, 원본 텍스트의 핵심 정보에 대한 직접적인 언급이 부족하다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽지만, 일부 정보가 추가되어 흐름이 약간 방해받을 수 있다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답에서 제공된 수치와 정보는 원본 텍스트와 일치하지 않으며, 이로 인해 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점을 가지고 있지만, 사실성과 정확성에서의 부족으로 인해 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 맥락에 적합한 내용을 포함하고 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보 전달이 이루어지고 있지만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.5938634300965243</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>4.2라는 수능 점수를 가지고 동의대학교 소프트웨어공학부에 합격할 확률을 판단하기 위해서는 해당 학과의 경쟁률과 평균 합격 점수 등을 고려해야 합니다.
+동의대학교 소프트웨어공학부의 경우, 2024학년도 모집단위에서 지원 인원이 많고 경쟁률이 높습니다. 예를 들어, "소프트웨어공학부" 모집단위에서는:
+- 지원 인원: 146명
+- 경쟁률: 4.87
+또한, 해당 학과의 평균 합격 점수와 표준 편차를 확인해 보겠습니다.
+- "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합"의 평균: 330.11
+- "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합"의 표준 편차: 9.08
+4.2라는 점수는 표준화된 점수가 아니므로, 정확한 평균과 표준 편차를 기반으로 합격 가능성을 판단하기 어렵습니다. 그러나 일반적으로 330점대의 평균 점수와 비교하면, 4.2라는 수능 점수는 상당히 높은 점수로 보입니다.
+따라서, 4.2라는 점수를 가지고 동의대학교 소프트웨어공학부에 합격할 확률이 상대적으로 높다고 볼 수 있습니다. 그러나 최종 합격 여부는 경쟁률과 지원 인원 등 다양한 요인에 의해 결정되므로, 정확한 판단을 위해서는 해당 학과의 최신 정보를 확인하는 것이 좋습니다.
+더 자세한 정보나 추가적인 질문이 있으시다면, 언제든지 물어보세요.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 포함하고 있으며, 3.92라는 점수가 평균보다 높은 수치라는 점도 언급하고 있습니다. 그러나 수능 최저기준에 대한 정보가 명시되어 있지 않다는 점에서 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 수능 점수가 합격 기준에 중요한 역할을 한다는 점에서 일관성을 유지하고 있습니다. 다만, 최저 기준에 대한 불확실성을 언급하면서 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 화학환경공학부 일반학생전형에 대한 정보를 제공하며, 원본 텍스트의 주제와 직접적으로 관련이 있습니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 최저 기준에 대한 언급이 다소 복잡하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 3.92라는 점수가 평균보다 높은 수치라는 점도 정확하게 전달하고 있습니다. 그러나 최저 기준에 대한 정보가 부족하여 약간의 정확성 저하가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다. 그러나 약간의 정보 누락이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 최저 기준에 대한 불확실성이 다소 의미를 흐릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 복잡한 표현이 있어 약간의 이해도를 저하시킬 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.7141311013132426</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부 일반학생전형에 대한 정보를 확인해보겠습니다.
+화학환경공학부는 정시모집군 가로 그룹에 속하며, 전형요소 반영비율은 수능 위주입니다. 즉, 수능 점수가 합격 기준을 결정하는 중요한 요인으로 작용합니다.
+2024학년도 동의대학교 화학환경공학부 일반학생전형의 수능 최저기준 정보를 확인해보겠습니다. 하지만 주어진 정보에는 해당 단과대학 및 모집단위별 수능 최저기준이 명시되어 있지 않습니다. 따라서, 정확한 수능 최저 기준을 확인하기 위해서는 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하거나 직접 문의하는 것이 가장 정확할 것입니다.
+만약 주어진 정보에 따르면 3.92라는 점수가 표준 변환 점수 합으로 해석된다면, 이는 평균보다 높은 수치입니다. 그러나 최저 기준이 무엇인지 명시되어 있지 않으므로, 해당 점수가 충분히 경쟁력을 갖추고 있는지 판단하기 위해서는 동의대학교 입학처 웹사이트를 참조하거나 직접 문의하는 것이 좋습니다.
+결론적으로, 주어진 정보만으로는 화학환경공학부 일반학생전형에 지원 가능성을 확정할 수 없습니다. 정확한 최저 기준을 확인하기 위해서는 동의대학교 입학처 웹사이트를 참조하거나 직접 문의하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주요 사실을 왜곡하고 있습니다. 원본 텍스트는 수능 4개 영역의 평균 점수와 관련된 정보를 제공하지만, 생성된 응답에서는 잘못된 평균 점수(539.24)를 제시하고 있습니다. 또한, 원본 텍스트의 합격 가능성에 대한 판단을 바탕으로 한 정보가 아닌, 추가적인 학과 정보와 경쟁률을 언급하고 있어 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 특정한 수치와 합격 가능성에 대한 판단을 제공하는 반면, 생성된 응답은 다른 수치와 학과 정보를 포함하여 혼란을 초래하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보가 포함되어 있어 주제에서 벗어난 부분이 있습니다. 원본 텍스트의 핵심은 합격 가능성에 대한 판단이지만, 생성된 응답은 경쟁률과 학과 정보를 추가하여 다소 산만해졌습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 이들 간의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 원본 텍스트의 주제와 관련된 정보가 혼합되어 있어 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 잘못된 수치를 제시하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가된 정보가 원본의 맥락과 다소 어긋나 있어 의미적으로 완벽하게 적절하지는 않습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 이해할 수 있지만, 정보가 복잡하게 얽혀 있어 명확하게 이해하기 어려운 부분이 있습니다. 원본 텍스트의 핵심 메시지가 흐려질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.7085812848825886</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>4.25라는 점수를 가지고 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능성은 분석해보겠습니다.
+주어진 데이터에서, 화학환경공학부는 2024학년도 모집단위로 "화학공학과, 환경공학과, 응용화학과"가 포함되어 있습니다. 이 학과들의 지원자와 경쟁률을 고려해보겠습니다.
+1. **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**:
+   - 평균: 539.24
+   - 표준 편차: 0.79
+2. **경쟁률**: 
+   - 화학공학과, 환경공학과, 응용화학과의 지원자 수와 모집 인원을 고려해야 합니다.
+3. **지원자 수와 모집 인원**:
+   - 예를 들어, "화학공학과"가 101명 지원하고 27명 모집한다면, 이 경우의 경쟁률은 약 3.74입니다.
+   - 다른 학과들도 비슷한 경쟁률을 보일 것입니다.
+4. **수능 점수 평균**:
+   - 539.24라는 수능 점수는 상당히 높은 점수이며, 이 점수를 가지고는 대부분의 학과에서 충분한 경쟁력을 갖추게 될 것입니다.
+따라서, 4.25라는 점수로는 화학환경공학부에 수능 일반학생전형으로 합격 가능성이 높습니다. 하지만 정확한 합격 가능성은 해당 학과의 지원자 수와 모집 인원을 고려하여 결정해야 합니다.
+만약 특정 학과의 지원자 수와 모집 인원이 더 자세히 알려진다면, 그에 따른 경쟁률을 계산하여 더욱 정확한 판단을 내릴 수 있습니다. 필요하다면, 동의대학교 입학처 웹사이트나 전화로 상세 정보를 확인해보시는 것이 좋습니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조하시거나, 직접 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 영화학과의 평균 성적에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 "수능 4개 영역 (가산점 포함) 표준 변환 점수 합"의 평균이 404.43이라고 명시되어 있는데, 생성된 응답에서는 435.99로 잘못 기재되었습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 특히 평균 점수와 표준 편차에 대한 수치가 서로 다르며, 이는 일관성을 해칩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 영화학과의 합격 가능성에 대한 분석을 포함하고 있습니다. 그러나 잘못된 수치로 인해 일부 정보가 왜곡되었습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 구조는 비교적 일관되지만, 잘못된 수치로 인해 논리적 흐름이 약간 손상되었습니다. 정보의 정확성이 떨어지면서 전체적인 일관성이 저하되었습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답의 수치가 원본 텍스트와 일치하지 않으며, 이는 정확성에 큰 영향을 미칩니다. 잘못된 평균 점수와 표준 편차로 인해 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 잘못된 수치로 인해 의미 전달이 왜곡되었습니다. 따라서 의미의 적절성이 다소 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장 구조는 명확합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.634361766580075</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 현재 제공된 데이터를 바탕으로 분석해보겠습니다.
+영화학과의 경우, "수능 4개 영역 (가산점 포함) 표준 변환 점수 합"에 대한 평균이 435.99이고, 표준 편차는 23.23입니다. 
+435.99 - 23.23 = 412.76
+435.99 + 23.23 = 459.22
+이 데이터를 바탕으로, 4.2라는 점수는 평균보다 약간 낮은 수준입니다. 하지만 표준 편차를 고려하면, 이 점수가 합격선에 가까운 범위에 속해 있습니다.
+따라서, 4.2의 성적만으로는 확실하게 합격할 수 있는 보장이 없습니다. 그러나 충분히 경쟁력이 있을 것으로 예상됩니다. 지원자의 서류 평가와 면접 성과 등 다른 요소들이 합격 결정에 영향을 미칠 수 있으므로, 최선의 준비를 하는 것이 중요합니다.
+더 자세한 정보나 추가적인 도움이 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해보시거나 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가적인 설명도 원본 내용과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 단계가 동일하게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.9531295461571639</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 바탕으로 면접이 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
